--- a/Documents/Kickoff Talent Skills Spreadsheet.xlsx
+++ b/Documents/Kickoff Talent Skills Spreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28718"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FasiTahir\6th Semester\SPM\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FasiTahir\Eduvance\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB18E076-E23F-420F-BEE0-8683245777D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3346B-C721-4015-9619-47DD3FE82AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,6 +545,12 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="1" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -565,12 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -984,7 +984,7 @@
   <dimension ref="A1:AY417"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1021,13 +1021,13 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -1043,12 +1043,12 @@
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1062,12 +1062,12 @@
       <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1200,16 +1200,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="25">
         <v>2</v>
       </c>
       <c r="I7" s="19">
@@ -1267,16 +1267,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="24">
         <v>2</v>
       </c>
       <c r="I8" s="19">
@@ -1334,16 +1334,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="25">
         <v>1</v>
       </c>
       <c r="I9" s="19">
@@ -1401,16 +1401,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="24">
         <v>2</v>
       </c>
       <c r="I10" s="19">
@@ -1464,16 +1464,16 @@
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="25">
         <v>1</v>
       </c>
       <c r="I11" s="19">
@@ -1527,16 +1527,16 @@
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="24">
         <v>2</v>
       </c>
       <c r="I12" s="19">
@@ -1587,21 +1587,21 @@
     </row>
     <row r="13" spans="1:51" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="25">
         <v>2.5</v>
       </c>
       <c r="I13" s="19">
@@ -1652,19 +1652,19 @@
     </row>
     <row r="14" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="24">
         <v>2.5</v>
       </c>
       <c r="I14" s="19">
@@ -1715,19 +1715,19 @@
     </row>
     <row r="15" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="25">
         <v>1</v>
       </c>
       <c r="I15" s="19">
@@ -1778,21 +1778,21 @@
     </row>
     <row r="16" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="24">
         <v>2.5</v>
       </c>
       <c r="I16" s="19">
@@ -1845,19 +1845,19 @@
     </row>
     <row r="17" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="25">
         <v>1.5</v>
       </c>
       <c r="I17" s="19">
@@ -1908,19 +1908,19 @@
     </row>
     <row r="18" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="24">
         <v>2</v>
       </c>
       <c r="I18" s="19">
@@ -1971,19 +1971,19 @@
     </row>
     <row r="19" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="25">
         <v>2</v>
       </c>
       <c r="I19" s="19">
@@ -2034,19 +2034,19 @@
     </row>
     <row r="20" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="24">
         <v>2</v>
       </c>
       <c r="I20" s="19">
@@ -2097,19 +2097,19 @@
     </row>
     <row r="21" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="25">
         <v>1.5</v>
       </c>
       <c r="I21" s="19">
@@ -2160,19 +2160,19 @@
     </row>
     <row r="22" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="24">
         <v>0</v>
       </c>
       <c r="I22" s="19">
@@ -2223,19 +2223,19 @@
     </row>
     <row r="23" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="25">
         <v>2.5</v>
       </c>
       <c r="I23" s="19">
@@ -2286,19 +2286,19 @@
     </row>
     <row r="24" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="24">
         <v>2</v>
       </c>
       <c r="I24" s="19">
@@ -2351,16 +2351,16 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="25">
         <v>1.5</v>
       </c>
       <c r="I25" s="19">
@@ -2411,16 +2411,16 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="24">
         <v>2</v>
       </c>
       <c r="I26" s="19">
@@ -2471,16 +2471,16 @@
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="25">
         <v>3</v>
       </c>
       <c r="I27" s="19">
@@ -2531,16 +2531,16 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="24">
         <v>2</v>
       </c>
       <c r="I28" s="19">
@@ -2593,16 +2593,16 @@
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="25">
         <v>2.5</v>
       </c>
       <c r="I29" s="19">
@@ -2653,16 +2653,16 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="24">
         <v>0.5</v>
       </c>
       <c r="I30" s="19">
@@ -2713,16 +2713,16 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="25">
         <v>1</v>
       </c>
       <c r="I31" s="19">
@@ -2773,16 +2773,16 @@
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="24">
         <v>2</v>
       </c>
       <c r="I32" s="19">
@@ -2832,16 +2832,16 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="25">
         <v>1.5</v>
       </c>
       <c r="I33" s="19">
@@ -2890,16 +2890,16 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G34" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="24">
         <v>1</v>
       </c>
       <c r="I34" s="19">
@@ -2948,16 +2948,16 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="25">
         <v>2.5</v>
       </c>
       <c r="I35" s="19">
@@ -3006,16 +3006,16 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="24">
         <v>2.5</v>
       </c>
       <c r="I36" s="19">
@@ -3064,16 +3064,16 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="25">
         <v>2</v>
       </c>
       <c r="I37" s="19">
@@ -3122,16 +3122,16 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="24">
         <v>0.5</v>
       </c>
       <c r="I38" s="19">
@@ -3180,16 +3180,16 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="25">
         <v>0.5</v>
       </c>
       <c r="I39" s="19">
@@ -3238,16 +3238,16 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="31" t="s">
+      <c r="G40" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="31">
+      <c r="H40" s="24">
         <v>0.5</v>
       </c>
       <c r="I40" s="19">
@@ -3296,16 +3296,16 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="25">
         <v>2.5</v>
       </c>
       <c r="I41" s="19">
@@ -3354,16 +3354,16 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="31" t="s">
+      <c r="G42" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H42" s="31">
+      <c r="H42" s="24">
         <v>0.5</v>
       </c>
       <c r="I42" s="19">
@@ -3412,16 +3412,16 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="25">
         <v>0.5</v>
       </c>
       <c r="I43" s="19">
@@ -3470,16 +3470,16 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="31" t="s">
+      <c r="G44" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="31">
+      <c r="H44" s="24">
         <v>0.5</v>
       </c>
       <c r="I44" s="19">
@@ -3528,16 +3528,16 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="32" t="s">
+      <c r="G45" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="25">
         <v>0.5</v>
       </c>
       <c r="I45" s="19">
@@ -3586,16 +3586,16 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="31" t="s">
+      <c r="G46" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="31">
+      <c r="H46" s="24">
         <v>0.5</v>
       </c>
       <c r="I46" s="19">
@@ -22211,21 +22211,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063BAC33E40A8AB4AB9A126D298799E78" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="393e3809860021ea4b53ed9d1e2ad736">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9926c504-9366-4d27-ba67-e7df4b72c3ca" xmlns:ns4="675b2d5a-2a5b-4198-b316-84224b1699b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94008880fd668028e4b73c345dde1642" ns3:_="" ns4:_="">
     <xsd:import namespace="9926c504-9366-4d27-ba67-e7df4b72c3ca"/>
@@ -22442,32 +22427,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC69FD84-4722-485B-95F5-B25971BB4485}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="675b2d5a-2a5b-4198-b316-84224b1699b9"/>
-    <ds:schemaRef ds:uri="9926c504-9366-4d27-ba67-e7df4b72c3ca"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8166D80B-5C7E-4401-9B25-09A4D3E293DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED16D48-9510-40B0-BBC1-A62A264ED743}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22484,4 +22459,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8166D80B-5C7E-4401-9B25-09A4D3E293DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC69FD84-4722-485B-95F5-B25971BB4485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="675b2d5a-2a5b-4198-b316-84224b1699b9"/>
+    <ds:schemaRef ds:uri="9926c504-9366-4d27-ba67-e7df4b72c3ca"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/Kickoff Talent Skills Spreadsheet.xlsx
+++ b/Documents/Kickoff Talent Skills Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28718"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FasiTahir\Eduvance\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3346B-C721-4015-9619-47DD3FE82AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDD6FEB-7DF8-4ED5-B94A-2DFF3AE9AB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t>Skill Needed</t>
   </si>
@@ -133,134 +122,137 @@
     <t>Alishba Mazhar</t>
   </si>
   <si>
-    <t>Developed Front end for multiple semester projects</t>
-  </si>
-  <si>
     <t>Eduvance</t>
-  </si>
-  <si>
-    <t>Designed Frontend in some of semester project</t>
-  </si>
-  <si>
-    <t>Worked on backend in all of my individual and group projects</t>
-  </si>
-  <si>
-    <t>Designed databases for many of my semester projects, also leaded the semester project in database course</t>
   </si>
   <si>
     <t>Wrote a research paper in ML, also created smart parenting app</t>
   </si>
   <si>
-    <t>Efficient in managing projects and meeting deadlines consistently.</t>
-  </si>
-  <si>
-    <t>Leaded many of my semester projects.</t>
-  </si>
-  <si>
-    <t>Worked on API in my semester project</t>
-  </si>
-  <si>
-    <t>Wrote requirement documents, project documentation, proposals for many of my semester projects</t>
-  </si>
-  <si>
-    <t>Developed Frontend in semester project</t>
-  </si>
-  <si>
-    <t>Experienced in handling backend development for nearly every project.</t>
-  </si>
-  <si>
-    <t>Set up and improved databases almost 3 different projects.</t>
-  </si>
-  <si>
-    <t>Implemented AI and ML concepts in semester projects.</t>
-  </si>
-  <si>
-    <t>Able to analyze information and make sensible choices.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not held formal leadership roles but adaptative </t>
-  </si>
-  <si>
-    <t>Strong expertise in documentation and consistently handled in every semester</t>
-  </si>
-  <si>
-    <t>Worked and handle in semester project</t>
-  </si>
-  <si>
-    <t>Experienced in finding bugs and testing for semester project</t>
   </si>
   <si>
     <t>Able to make important decisions for the team in semester projects.</t>
   </si>
   <si>
-    <t>Worked as an TA and helped others debugging the errors and also done testing for my semester project</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gained hands-on experience in backend development by building backend functionalities for multiple semester projects. </t>
-  </si>
-  <si>
-    <t>Designed and maintained database systems for five projects.</t>
-  </si>
-  <si>
-    <t>Developed two projects integrating AI and ML engineering.</t>
-  </si>
-  <si>
-    <t>Gained hands-on experience in efficiently managing two projects.</t>
-  </si>
-  <si>
-    <t>Moderate experience in decision-making, with the ability to analyze situations and make effective choices.</t>
-  </si>
-  <si>
-    <t>Demonstrated strong leadership skills by successfully leading 4 projects, ensuring collaboration and efficiency.</t>
-  </si>
-  <si>
-    <t>Moderate expertise in documentation, managing in 3 semesters.</t>
-  </si>
-  <si>
-    <t>Moderate expertise in API management, ensuring seamless integration and functionality.</t>
-  </si>
-  <si>
-    <t>Experienced in debugging and testing multiple projects efficiently, ensuring quality and performance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designed and developed front-end interfaces for multiple academic projects. </t>
-  </si>
-  <si>
-    <t>Built backend for 2 seImplemented backend functionalities for two semester-long projects.</t>
-  </si>
-  <si>
-    <t>Engineered and optimized databases for four projects.</t>
-  </si>
-  <si>
-    <t>Gained hands-on experience with AI-based solutions in a project.</t>
-  </si>
-  <si>
-    <t>Successfully led and managed four semester projects, ensuring timely delivery.</t>
   </si>
   <si>
     <t xml:space="preserve">Strong analytical skills with the ability to make rational and data-driven decisions. </t>
   </si>
   <si>
-    <t>Led teams for four academic projects, ensuring collaboration and efficiency.</t>
+    <t>Dr. Syed Khaldoon Khurshid</t>
   </si>
   <si>
-    <t xml:space="preserve">Integrated and managed APIs in a semester project. </t>
+    <t>Frontend for School management system in DB course</t>
   </si>
   <si>
-    <t>Extensive experience in debugging and testing multiple projects.</t>
+    <t>Experienced in AI Attendance Face recognition system project in AI course</t>
   </si>
   <si>
-    <t xml:space="preserve">Wrote project documentation for semester projects. </t>
+    <t>I had created a report in the DBMS project.</t>
   </si>
   <si>
-    <t>Dr. Syed Khaldoon Khurshid</t>
+    <t>Experienced in NEXTAY project in my software engineering course</t>
+  </si>
+  <si>
+    <t>Handle this in Nextay project</t>
+  </si>
+  <si>
+    <t>Designed frontend for Nextay website</t>
+  </si>
+  <si>
+    <t>Developed Front end for Nextay semester project and many more too.</t>
+  </si>
+  <si>
+    <t>Experienced in debugging and testing Employee management system with facial recognition project efficiently, ensuring quality and performance.</t>
+  </si>
+  <si>
+    <t>Gained hands-on experience in  Nextay project management efficiently and managing two projects more.</t>
+  </si>
+  <si>
+    <t>Lead many projects like secuirty system with IOT and also have strong leadership skills, ensuring collaboration and efficiency.</t>
+  </si>
+  <si>
+    <t>Moderate expertise in documentation, manage  School management system report in semester project.</t>
+  </si>
+  <si>
+    <t>Do decision-making in restaurant management system, with the ability to analyze situations and make effective choices.</t>
+  </si>
+  <si>
+    <t>Designed and maintained database in CLOS management system in semester project and also maintain database in other projects too.</t>
+  </si>
+  <si>
+    <t>Manage API  in Nextay Projectmanagement, ensuring seamless integration and functionality.</t>
+  </si>
+  <si>
+    <t>Develop AI and ML in employee management system with facial recognition system and also 1 project too.</t>
+  </si>
+  <si>
+    <t>Did in research paper and face recognition attendance system in AI course</t>
+  </si>
+  <si>
+    <t>Did a project named "nextay" in software engineering course</t>
+  </si>
+  <si>
+    <t>Designed Frontend in some of my semester projects like Nextay</t>
+  </si>
+  <si>
+    <t>Tested semester projects, particularly Machine Learning ones. Also worked as a TA, assisting with debugging.</t>
+  </si>
+  <si>
+    <t>Managed Nextay on the JIRA using the scrum board.</t>
+  </si>
+  <si>
+    <t>Led multiple semester projects, including Nextay and Smart Parenting Assistant.</t>
+  </si>
+  <si>
+    <t>Wrote requirement documents, project documentation, proposals for many of my semester projects like in smart parenting assistant I documented the project.</t>
+  </si>
+  <si>
+    <t>Designed databases for many of my semester projects, also leaded the project "Engineering Firm Management system" in database course.</t>
+  </si>
+  <si>
+    <t>Worked on backend in all of my individual and group projects. For example worked on scrapping, sorting and multiple DSA concepts in DSA's semester project</t>
+  </si>
+  <si>
+    <t>Worked on API in Nextay and Smartparenting assistant</t>
+  </si>
+  <si>
+    <t>Tested projects with Postman; twice a TA gaining strong debugging skills.</t>
+  </si>
+  <si>
+    <t>Did this in a school management system in my DB course</t>
+  </si>
+  <si>
+    <t>Did this in school management system of my DB course</t>
+  </si>
+  <si>
+    <t>Successfully led and managed "inSight" project</t>
+  </si>
+  <si>
+    <t>Led teams for four academic projects, including TFG and inSight.</t>
+  </si>
+  <si>
+    <t>Wrote project documentations my for semester projects like inSight, TFG, Nextay</t>
+  </si>
+  <si>
+    <t>Engineered and optimized databases for four projects including CLO management system and Resturant Management system</t>
+  </si>
+  <si>
+    <t>Implemented backend functionalities for inSight and Nextay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated and managed APIs in a Nextay. </t>
+  </si>
+  <si>
+    <t>Gained hands-on experience with AI-based solutions in inSight.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,6 +293,21 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -484,13 +491,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" applyFill="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -551,14 +559,11 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -572,12 +577,569 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1" xr:uid="{6F8CFC14-36DF-4CCC-B353-9B0DDB418554}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -631,19 +1193,14 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>405342</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1045559</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>36879</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="2143125" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Imagen 2">
@@ -658,21 +1215,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="405342" y="160867"/>
-          <a:ext cx="2159455" cy="792000"/>
+          <a:off x="400050" y="152400"/>
+          <a:ext cx="2143125" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -680,14 +1232,14 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -725,7 +1277,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -831,7 +1383,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -973,7 +1525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -983,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1021,19 +1573,19 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:51" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="10" t="s">
         <v>9</v>
@@ -1043,18 +1595,18 @@
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>32</v>
+      <c r="F3" s="30" t="s">
+        <v>31</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:51" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1062,18 +1614,18 @@
       <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>71</v>
+      <c r="F4" s="31" t="s">
+        <v>37</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1126,7 +1678,7 @@
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
     </row>
-    <row r="6" spans="1:51" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="23" t="s">
         <v>3</v>
@@ -1191,7 +1743,7 @@
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
     </row>
-    <row r="7" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>1</v>
@@ -1206,8 +1758,8 @@
       <c r="F7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>61</v>
+      <c r="G7" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="H7" s="25">
         <v>2</v>
@@ -1258,7 +1810,7 @@
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
     </row>
-    <row r="8" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="3">
         <v>2</v>
@@ -1273,8 +1825,8 @@
       <c r="F8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>41</v>
+      <c r="G8" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="H8" s="24">
         <v>2</v>
@@ -1325,7 +1877,7 @@
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
     </row>
-    <row r="9" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="4">
         <v>3</v>
@@ -1340,8 +1892,8 @@
       <c r="F9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>33</v>
+      <c r="G9" s="35" t="s">
+        <v>55</v>
       </c>
       <c r="H9" s="25">
         <v>1</v>
@@ -1392,7 +1944,7 @@
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
     </row>
-    <row r="10" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="5">
         <v>4</v>
@@ -1407,8 +1959,8 @@
       <c r="F10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>31</v>
+      <c r="G10" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="H10" s="24">
         <v>2</v>
@@ -1459,7 +2011,7 @@
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
     </row>
-    <row r="11" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -1470,8 +2022,8 @@
       <c r="F11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>51</v>
+      <c r="G11" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="H11" s="25">
         <v>1</v>
@@ -1522,7 +2074,7 @@
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
     </row>
-    <row r="12" spans="1:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1533,8 +2085,8 @@
       <c r="F12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>49</v>
+      <c r="G12" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="H12" s="24">
         <v>2</v>
@@ -1585,12 +2137,12 @@
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
     </row>
-    <row r="13" spans="1:51" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="6"/>
       <c r="E13" s="25" t="s">
         <v>26</v>
@@ -1598,8 +2150,8 @@
       <c r="F13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="25" t="s">
-        <v>60</v>
+      <c r="G13" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="H13" s="25">
         <v>2.5</v>
@@ -1650,10 +2202,10 @@
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
     </row>
-    <row r="14" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="6"/>
       <c r="E14" s="24" t="s">
         <v>26</v>
@@ -1661,8 +2213,8 @@
       <c r="F14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>69</v>
+      <c r="G14" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="H14" s="24">
         <v>2.5</v>
@@ -1713,10 +2265,10 @@
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
     </row>
-    <row r="15" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6"/>
       <c r="E15" s="25" t="s">
         <v>21</v>
@@ -1724,8 +2276,8 @@
       <c r="F15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>55</v>
+      <c r="G15" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="H15" s="25">
         <v>1</v>
@@ -1776,12 +2328,12 @@
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
     </row>
-    <row r="16" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
         <v>21</v>
@@ -1789,8 +2341,8 @@
       <c r="F16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>37</v>
+      <c r="G16" s="37" t="s">
+        <v>57</v>
       </c>
       <c r="H16" s="24">
         <v>2.5</v>
@@ -1843,10 +2395,10 @@
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
     </row>
-    <row r="17" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6"/>
       <c r="E17" s="25" t="s">
         <v>21</v>
@@ -1854,8 +2406,8 @@
       <c r="F17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>37</v>
+      <c r="G17" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="H17" s="25">
         <v>1.5</v>
@@ -1906,10 +2458,10 @@
       <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
     </row>
-    <row r="18" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="24" t="s">
         <v>21</v>
@@ -1917,8 +2469,8 @@
       <c r="F18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>65</v>
+      <c r="G18" s="37" t="s">
+        <v>66</v>
       </c>
       <c r="H18" s="24">
         <v>2</v>
@@ -1969,10 +2521,10 @@
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
     </row>
-    <row r="19" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="25" t="s">
         <v>23</v>
@@ -1980,8 +2532,8 @@
       <c r="F19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="25" t="s">
-        <v>38</v>
+      <c r="G19" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="H19" s="25">
         <v>2</v>
@@ -2032,10 +2584,10 @@
       <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
     </row>
-    <row r="20" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="24" t="s">
         <v>23</v>
@@ -2043,8 +2595,8 @@
       <c r="F20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>57</v>
+      <c r="G20" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="H20" s="24">
         <v>2</v>
@@ -2095,10 +2647,10 @@
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
     </row>
-    <row r="21" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="25" t="s">
         <v>23</v>
@@ -2106,7 +2658,7 @@
       <c r="F21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="35" t="s">
         <v>67</v>
       </c>
       <c r="H21" s="25">
@@ -2158,10 +2710,10 @@
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
     </row>
-    <row r="22" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="24" t="s">
         <v>23</v>
@@ -2169,8 +2721,8 @@
       <c r="F22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>46</v>
+      <c r="G22" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="H22" s="24">
         <v>0</v>
@@ -2221,10 +2773,10 @@
       <c r="AX22" s="1"/>
       <c r="AY22" s="1"/>
     </row>
-    <row r="23" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="25" t="s">
         <v>24</v>
@@ -2232,8 +2784,8 @@
       <c r="F23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>40</v>
+      <c r="G23" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="H23" s="25">
         <v>2.5</v>
@@ -2284,10 +2836,10 @@
       <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
     </row>
-    <row r="24" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="24" t="s">
         <v>24</v>
@@ -2295,8 +2847,8 @@
       <c r="F24" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>47</v>
+      <c r="G24" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="H24" s="24">
         <v>2</v>
@@ -2357,8 +2909,8 @@
       <c r="F25" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="25" t="s">
-        <v>58</v>
+      <c r="G25" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="H25" s="25">
         <v>1.5</v>
@@ -2417,8 +2969,8 @@
       <c r="F26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="24" t="s">
-        <v>70</v>
+      <c r="G26" s="37" t="s">
+        <v>68</v>
       </c>
       <c r="H26" s="24">
         <v>2</v>
@@ -2477,8 +3029,8 @@
       <c r="F27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="25" t="s">
-        <v>66</v>
+      <c r="G27" s="36" t="s">
+        <v>36</v>
       </c>
       <c r="H27" s="25">
         <v>3</v>
@@ -2537,8 +3089,8 @@
       <c r="F28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="24" t="s">
-        <v>50</v>
+      <c r="G28" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="H28" s="24">
         <v>2</v>
@@ -2599,8 +3151,8 @@
       <c r="F29" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="25" t="s">
-        <v>56</v>
+      <c r="G29" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="H29" s="25">
         <v>2.5</v>
@@ -2659,8 +3211,8 @@
       <c r="F30" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="24" t="s">
-        <v>45</v>
+      <c r="G30" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="H30" s="24">
         <v>0.5</v>
@@ -2719,8 +3271,8 @@
       <c r="F31" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="25" t="s">
-        <v>35</v>
+      <c r="G31" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="H31" s="25">
         <v>1</v>
@@ -2779,8 +3331,8 @@
       <c r="F32" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="24" t="s">
-        <v>53</v>
+      <c r="G32" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="H32" s="24">
         <v>2</v>
@@ -2828,7 +3380,7 @@
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2838,8 +3390,8 @@
       <c r="F33" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="25" t="s">
-        <v>63</v>
+      <c r="G33" s="35" t="s">
+        <v>69</v>
       </c>
       <c r="H33" s="25">
         <v>1.5</v>
@@ -2886,7 +3438,7 @@
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2896,8 +3448,8 @@
       <c r="F34" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="24" t="s">
-        <v>43</v>
+      <c r="G34" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="H34" s="24">
         <v>1</v>
@@ -2944,7 +3496,7 @@
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2954,8 +3506,8 @@
       <c r="F35" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="25" t="s">
-        <v>34</v>
+      <c r="G35" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="H35" s="25">
         <v>2.5</v>
@@ -3002,7 +3554,7 @@
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3012,8 +3564,8 @@
       <c r="F36" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>52</v>
+      <c r="G36" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="H36" s="24">
         <v>2.5</v>
@@ -3060,7 +3612,7 @@
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3070,8 +3622,8 @@
       <c r="F37" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="25" t="s">
-        <v>42</v>
+      <c r="G37" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="H37" s="25">
         <v>2</v>
@@ -3118,7 +3670,7 @@
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3128,8 +3680,8 @@
       <c r="F38" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="24" t="s">
-        <v>62</v>
+      <c r="G38" s="37" t="s">
+        <v>70</v>
       </c>
       <c r="H38" s="24">
         <v>0.5</v>
@@ -3176,7 +3728,7 @@
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3186,8 +3738,8 @@
       <c r="F39" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="25" t="s">
-        <v>39</v>
+      <c r="G39" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="H39" s="25">
         <v>0.5</v>
@@ -3234,7 +3786,7 @@
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3244,8 +3796,8 @@
       <c r="F40" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="24" t="s">
-        <v>48</v>
+      <c r="G40" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="H40" s="24">
         <v>0.5</v>
@@ -3292,7 +3844,7 @@
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3302,8 +3854,8 @@
       <c r="F41" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="25" t="s">
-        <v>59</v>
+      <c r="G41" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="H41" s="25">
         <v>2.5</v>
@@ -3350,7 +3902,7 @@
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3360,8 +3912,8 @@
       <c r="F42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="24" t="s">
-        <v>68</v>
+      <c r="G42" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="H42" s="24">
         <v>0.5</v>
@@ -3408,7 +3960,7 @@
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3418,8 +3970,8 @@
       <c r="F43" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="25" t="s">
-        <v>36</v>
+      <c r="G43" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="H43" s="25">
         <v>0.5</v>
@@ -3466,7 +4018,7 @@
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3476,8 +4028,8 @@
       <c r="F44" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="24" t="s">
-        <v>44</v>
+      <c r="G44" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="H44" s="24">
         <v>0.5</v>
@@ -3524,7 +4076,7 @@
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3534,8 +4086,8 @@
       <c r="F45" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="25" t="s">
-        <v>54</v>
+      <c r="G45" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="H45" s="25">
         <v>0.5</v>
@@ -3582,7 +4134,7 @@
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3592,8 +4144,8 @@
       <c r="F46" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="24" t="s">
-        <v>64</v>
+      <c r="G46" s="37" t="s">
+        <v>72</v>
       </c>
       <c r="H46" s="24">
         <v>0.5</v>
@@ -3640,7 +4192,7 @@
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3688,8 +4240,7 @@
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A48"/>
+    <row r="48" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3737,8 +4288,7 @@
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A49"/>
+    <row r="49" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3786,8 +4336,7 @@
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A50"/>
+    <row r="50" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3835,8 +4384,7 @@
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A51"/>
+    <row r="51" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3884,8 +4432,7 @@
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A52"/>
+    <row r="52" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3933,8 +4480,7 @@
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A53"/>
+    <row r="53" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3982,8 +4528,7 @@
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A54"/>
+    <row r="54" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -4031,8 +4576,7 @@
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A55"/>
+    <row r="55" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -4080,8 +4624,7 @@
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A56"/>
+    <row r="56" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -4127,8 +4670,7 @@
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A57"/>
+    <row r="57" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -4174,8 +4716,7 @@
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A58"/>
+    <row r="58" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -4221,8 +4762,7 @@
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A59"/>
+    <row r="59" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -4271,8 +4811,7 @@
       <c r="AX59" s="1"/>
       <c r="AY59" s="1"/>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A60"/>
+    <row r="60" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -4321,8 +4860,7 @@
       <c r="AX60" s="1"/>
       <c r="AY60" s="1"/>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A61"/>
+    <row r="61" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -4371,8 +4909,7 @@
       <c r="AX61" s="1"/>
       <c r="AY61" s="1"/>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A62"/>
+    <row r="62" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -4423,8 +4960,7 @@
       <c r="AX62" s="1"/>
       <c r="AY62" s="1"/>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A63"/>
+    <row r="63" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -4473,8 +5009,7 @@
       <c r="AX63" s="1"/>
       <c r="AY63" s="1"/>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A64"/>
+    <row r="64" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -4523,8 +5058,7 @@
       <c r="AX64" s="1"/>
       <c r="AY64" s="1"/>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A65"/>
+    <row r="65" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -4573,8 +5107,7 @@
       <c r="AX65" s="1"/>
       <c r="AY65" s="1"/>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A66"/>
+    <row r="66" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -4623,8 +5156,7 @@
       <c r="AX66" s="1"/>
       <c r="AY66" s="1"/>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A67"/>
+    <row r="67" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -4673,8 +5205,7 @@
       <c r="AX67" s="1"/>
       <c r="AY67" s="1"/>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A68"/>
+    <row r="68" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -4723,8 +5254,7 @@
       <c r="AX68" s="1"/>
       <c r="AY68" s="1"/>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A69"/>
+    <row r="69" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -4773,8 +5303,7 @@
       <c r="AX69" s="1"/>
       <c r="AY69" s="1"/>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A70"/>
+    <row r="70" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -4823,8 +5352,7 @@
       <c r="AX70" s="1"/>
       <c r="AY70" s="1"/>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A71"/>
+    <row r="71" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -4873,8 +5401,7 @@
       <c r="AX71" s="1"/>
       <c r="AY71" s="1"/>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A72"/>
+    <row r="72" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -4923,8 +5450,7 @@
       <c r="AX72" s="1"/>
       <c r="AY72" s="1"/>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A73"/>
+    <row r="73" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -4973,8 +5499,7 @@
       <c r="AX73" s="1"/>
       <c r="AY73" s="1"/>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A74"/>
+    <row r="74" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -5023,8 +5548,7 @@
       <c r="AX74" s="1"/>
       <c r="AY74" s="1"/>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A75"/>
+    <row r="75" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -5073,8 +5597,7 @@
       <c r="AX75" s="1"/>
       <c r="AY75" s="1"/>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A76"/>
+    <row r="76" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -5123,8 +5646,7 @@
       <c r="AX76" s="1"/>
       <c r="AY76" s="1"/>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A77"/>
+    <row r="77" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -5173,8 +5695,7 @@
       <c r="AX77" s="1"/>
       <c r="AY77" s="1"/>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A78"/>
+    <row r="78" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -5223,8 +5744,7 @@
       <c r="AX78" s="1"/>
       <c r="AY78" s="1"/>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A79"/>
+    <row r="79" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -5273,8 +5793,7 @@
       <c r="AX79" s="1"/>
       <c r="AY79" s="1"/>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A80"/>
+    <row r="80" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -5323,8 +5842,7 @@
       <c r="AX80" s="1"/>
       <c r="AY80" s="1"/>
     </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A81"/>
+    <row r="81" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -5373,8 +5891,7 @@
       <c r="AX81" s="1"/>
       <c r="AY81" s="1"/>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A82"/>
+    <row r="82" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -5423,8 +5940,7 @@
       <c r="AX82" s="1"/>
       <c r="AY82" s="1"/>
     </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A83"/>
+    <row r="83" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -5473,8 +5989,7 @@
       <c r="AX83" s="1"/>
       <c r="AY83" s="1"/>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A84"/>
+    <row r="84" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -5523,8 +6038,7 @@
       <c r="AX84" s="1"/>
       <c r="AY84" s="1"/>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A85"/>
+    <row r="85" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -5573,8 +6087,7 @@
       <c r="AX85" s="1"/>
       <c r="AY85" s="1"/>
     </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A86"/>
+    <row r="86" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -5623,8 +6136,7 @@
       <c r="AX86" s="1"/>
       <c r="AY86" s="1"/>
     </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A87"/>
+    <row r="87" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -5673,8 +6185,7 @@
       <c r="AX87" s="1"/>
       <c r="AY87" s="1"/>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A88"/>
+    <row r="88" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -5723,8 +6234,7 @@
       <c r="AX88" s="1"/>
       <c r="AY88" s="1"/>
     </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A89"/>
+    <row r="89" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -5773,8 +6283,7 @@
       <c r="AX89" s="1"/>
       <c r="AY89" s="1"/>
     </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A90"/>
+    <row r="90" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -5823,8 +6332,7 @@
       <c r="AX90" s="1"/>
       <c r="AY90" s="1"/>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A91"/>
+    <row r="91" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -5873,8 +6381,7 @@
       <c r="AX91" s="1"/>
       <c r="AY91" s="1"/>
     </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A92"/>
+    <row r="92" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -5923,8 +6430,7 @@
       <c r="AX92" s="1"/>
       <c r="AY92" s="1"/>
     </row>
-    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A93"/>
+    <row r="93" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -5973,8 +6479,7 @@
       <c r="AX93" s="1"/>
       <c r="AY93" s="1"/>
     </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A94"/>
+    <row r="94" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -6023,8 +6528,7 @@
       <c r="AX94" s="1"/>
       <c r="AY94" s="1"/>
     </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A95"/>
+    <row r="95" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -6073,8 +6577,7 @@
       <c r="AX95" s="1"/>
       <c r="AY95" s="1"/>
     </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A96"/>
+    <row r="96" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -6123,8 +6626,7 @@
       <c r="AX96" s="1"/>
       <c r="AY96" s="1"/>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A97"/>
+    <row r="97" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -6173,8 +6675,7 @@
       <c r="AX97" s="1"/>
       <c r="AY97" s="1"/>
     </row>
-    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A98"/>
+    <row r="98" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -6223,8 +6724,7 @@
       <c r="AX98" s="1"/>
       <c r="AY98" s="1"/>
     </row>
-    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A99"/>
+    <row r="99" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -6273,8 +6773,7 @@
       <c r="AX99" s="1"/>
       <c r="AY99" s="1"/>
     </row>
-    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A100"/>
+    <row r="100" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -6323,8 +6822,7 @@
       <c r="AX100" s="1"/>
       <c r="AY100" s="1"/>
     </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A101"/>
+    <row r="101" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -6373,8 +6871,7 @@
       <c r="AX101" s="1"/>
       <c r="AY101" s="1"/>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A102"/>
+    <row r="102" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -6423,8 +6920,7 @@
       <c r="AX102" s="1"/>
       <c r="AY102" s="1"/>
     </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A103"/>
+    <row r="103" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -6473,8 +6969,7 @@
       <c r="AX103" s="1"/>
       <c r="AY103" s="1"/>
     </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A104"/>
+    <row r="104" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -6523,8 +7018,7 @@
       <c r="AX104" s="1"/>
       <c r="AY104" s="1"/>
     </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A105"/>
+    <row r="105" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -6573,8 +7067,7 @@
       <c r="AX105" s="1"/>
       <c r="AY105" s="1"/>
     </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A106"/>
+    <row r="106" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -6623,8 +7116,7 @@
       <c r="AX106" s="1"/>
       <c r="AY106" s="1"/>
     </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A107"/>
+    <row r="107" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -6673,8 +7165,7 @@
       <c r="AX107" s="1"/>
       <c r="AY107" s="1"/>
     </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A108"/>
+    <row r="108" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -6723,8 +7214,7 @@
       <c r="AX108" s="1"/>
       <c r="AY108" s="1"/>
     </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A109"/>
+    <row r="109" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -6773,8 +7263,7 @@
       <c r="AX109" s="1"/>
       <c r="AY109" s="1"/>
     </row>
-    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A110"/>
+    <row r="110" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -6823,8 +7312,7 @@
       <c r="AX110" s="1"/>
       <c r="AY110" s="1"/>
     </row>
-    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A111"/>
+    <row r="111" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -6873,8 +7361,7 @@
       <c r="AX111" s="1"/>
       <c r="AY111" s="1"/>
     </row>
-    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A112"/>
+    <row r="112" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -6923,8 +7410,7 @@
       <c r="AX112" s="1"/>
       <c r="AY112" s="1"/>
     </row>
-    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A113"/>
+    <row r="113" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -6973,8 +7459,7 @@
       <c r="AX113" s="1"/>
       <c r="AY113" s="1"/>
     </row>
-    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A114"/>
+    <row r="114" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -7023,8 +7508,7 @@
       <c r="AX114" s="1"/>
       <c r="AY114" s="1"/>
     </row>
-    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A115"/>
+    <row r="115" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -7073,8 +7557,7 @@
       <c r="AX115" s="1"/>
       <c r="AY115" s="1"/>
     </row>
-    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A116"/>
+    <row r="116" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -7123,8 +7606,7 @@
       <c r="AX116" s="1"/>
       <c r="AY116" s="1"/>
     </row>
-    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A117"/>
+    <row r="117" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -7173,8 +7655,7 @@
       <c r="AX117" s="1"/>
       <c r="AY117" s="1"/>
     </row>
-    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A118"/>
+    <row r="118" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -7223,8 +7704,7 @@
       <c r="AX118" s="1"/>
       <c r="AY118" s="1"/>
     </row>
-    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A119"/>
+    <row r="119" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -7273,8 +7753,7 @@
       <c r="AX119" s="1"/>
       <c r="AY119" s="1"/>
     </row>
-    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A120"/>
+    <row r="120" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -7323,8 +7802,7 @@
       <c r="AX120" s="1"/>
       <c r="AY120" s="1"/>
     </row>
-    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A121"/>
+    <row r="121" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -7373,8 +7851,7 @@
       <c r="AX121" s="1"/>
       <c r="AY121" s="1"/>
     </row>
-    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A122"/>
+    <row r="122" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -7423,8 +7900,7 @@
       <c r="AX122" s="1"/>
       <c r="AY122" s="1"/>
     </row>
-    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A123"/>
+    <row r="123" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -7473,8 +7949,7 @@
       <c r="AX123" s="1"/>
       <c r="AY123" s="1"/>
     </row>
-    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A124"/>
+    <row r="124" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -7523,8 +7998,7 @@
       <c r="AX124" s="1"/>
       <c r="AY124" s="1"/>
     </row>
-    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A125"/>
+    <row r="125" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -7573,8 +8047,7 @@
       <c r="AX125" s="1"/>
       <c r="AY125" s="1"/>
     </row>
-    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A126"/>
+    <row r="126" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -7623,8 +8096,7 @@
       <c r="AX126" s="1"/>
       <c r="AY126" s="1"/>
     </row>
-    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A127"/>
+    <row r="127" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -7673,8 +8145,7 @@
       <c r="AX127" s="1"/>
       <c r="AY127" s="1"/>
     </row>
-    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A128"/>
+    <row r="128" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -7723,8 +8194,7 @@
       <c r="AX128" s="1"/>
       <c r="AY128" s="1"/>
     </row>
-    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A129"/>
+    <row r="129" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -7773,8 +8243,7 @@
       <c r="AX129" s="1"/>
       <c r="AY129" s="1"/>
     </row>
-    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A130"/>
+    <row r="130" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -7823,8 +8292,7 @@
       <c r="AX130" s="1"/>
       <c r="AY130" s="1"/>
     </row>
-    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A131"/>
+    <row r="131" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -7873,8 +8341,7 @@
       <c r="AX131" s="1"/>
       <c r="AY131" s="1"/>
     </row>
-    <row r="132" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A132"/>
+    <row r="132" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -7923,8 +8390,7 @@
       <c r="AX132" s="1"/>
       <c r="AY132" s="1"/>
     </row>
-    <row r="133" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A133"/>
+    <row r="133" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -7973,8 +8439,7 @@
       <c r="AX133" s="1"/>
       <c r="AY133" s="1"/>
     </row>
-    <row r="134" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A134"/>
+    <row r="134" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -8023,8 +8488,7 @@
       <c r="AX134" s="1"/>
       <c r="AY134" s="1"/>
     </row>
-    <row r="135" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A135"/>
+    <row r="135" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -8073,8 +8537,7 @@
       <c r="AX135" s="1"/>
       <c r="AY135" s="1"/>
     </row>
-    <row r="136" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A136"/>
+    <row r="136" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -8123,8 +8586,7 @@
       <c r="AX136" s="1"/>
       <c r="AY136" s="1"/>
     </row>
-    <row r="137" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A137"/>
+    <row r="137" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -8173,8 +8635,7 @@
       <c r="AX137" s="1"/>
       <c r="AY137" s="1"/>
     </row>
-    <row r="138" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A138"/>
+    <row r="138" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -8223,8 +8684,7 @@
       <c r="AX138" s="1"/>
       <c r="AY138" s="1"/>
     </row>
-    <row r="139" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A139"/>
+    <row r="139" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -8273,8 +8733,7 @@
       <c r="AX139" s="1"/>
       <c r="AY139" s="1"/>
     </row>
-    <row r="140" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A140"/>
+    <row r="140" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -8323,8 +8782,7 @@
       <c r="AX140" s="1"/>
       <c r="AY140" s="1"/>
     </row>
-    <row r="141" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A141"/>
+    <row r="141" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -8373,8 +8831,7 @@
       <c r="AX141" s="1"/>
       <c r="AY141" s="1"/>
     </row>
-    <row r="142" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A142"/>
+    <row r="142" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -8423,8 +8880,7 @@
       <c r="AX142" s="1"/>
       <c r="AY142" s="1"/>
     </row>
-    <row r="143" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A143"/>
+    <row r="143" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -8473,8 +8929,7 @@
       <c r="AX143" s="1"/>
       <c r="AY143" s="1"/>
     </row>
-    <row r="144" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A144"/>
+    <row r="144" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -8523,8 +8978,7 @@
       <c r="AX144" s="1"/>
       <c r="AY144" s="1"/>
     </row>
-    <row r="145" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A145"/>
+    <row r="145" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -8573,8 +9027,7 @@
       <c r="AX145" s="1"/>
       <c r="AY145" s="1"/>
     </row>
-    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A146"/>
+    <row r="146" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -8623,8 +9076,7 @@
       <c r="AX146" s="1"/>
       <c r="AY146" s="1"/>
     </row>
-    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A147"/>
+    <row r="147" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -8673,8 +9125,7 @@
       <c r="AX147" s="1"/>
       <c r="AY147" s="1"/>
     </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A148"/>
+    <row r="148" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -8723,8 +9174,7 @@
       <c r="AX148" s="1"/>
       <c r="AY148" s="1"/>
     </row>
-    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A149"/>
+    <row r="149" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -8773,8 +9223,7 @@
       <c r="AX149" s="1"/>
       <c r="AY149" s="1"/>
     </row>
-    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A150"/>
+    <row r="150" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -8823,8 +9272,7 @@
       <c r="AX150" s="1"/>
       <c r="AY150" s="1"/>
     </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A151"/>
+    <row r="151" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -8873,8 +9321,7 @@
       <c r="AX151" s="1"/>
       <c r="AY151" s="1"/>
     </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A152"/>
+    <row r="152" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -8923,8 +9370,7 @@
       <c r="AX152" s="1"/>
       <c r="AY152" s="1"/>
     </row>
-    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A153"/>
+    <row r="153" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -8973,8 +9419,7 @@
       <c r="AX153" s="1"/>
       <c r="AY153" s="1"/>
     </row>
-    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A154"/>
+    <row r="154" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -9023,8 +9468,7 @@
       <c r="AX154" s="1"/>
       <c r="AY154" s="1"/>
     </row>
-    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A155"/>
+    <row r="155" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -9073,8 +9517,7 @@
       <c r="AX155" s="1"/>
       <c r="AY155" s="1"/>
     </row>
-    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A156"/>
+    <row r="156" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -9123,8 +9566,7 @@
       <c r="AX156" s="1"/>
       <c r="AY156" s="1"/>
     </row>
-    <row r="157" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A157"/>
+    <row r="157" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -9173,8 +9615,7 @@
       <c r="AX157" s="1"/>
       <c r="AY157" s="1"/>
     </row>
-    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A158"/>
+    <row r="158" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -9223,8 +9664,7 @@
       <c r="AX158" s="1"/>
       <c r="AY158" s="1"/>
     </row>
-    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A159"/>
+    <row r="159" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -9273,8 +9713,7 @@
       <c r="AX159" s="1"/>
       <c r="AY159" s="1"/>
     </row>
-    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A160"/>
+    <row r="160" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -9323,8 +9762,7 @@
       <c r="AX160" s="1"/>
       <c r="AY160" s="1"/>
     </row>
-    <row r="161" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A161"/>
+    <row r="161" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -9373,8 +9811,7 @@
       <c r="AX161" s="1"/>
       <c r="AY161" s="1"/>
     </row>
-    <row r="162" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A162"/>
+    <row r="162" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -9423,8 +9860,7 @@
       <c r="AX162" s="1"/>
       <c r="AY162" s="1"/>
     </row>
-    <row r="163" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A163"/>
+    <row r="163" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -9473,8 +9909,7 @@
       <c r="AX163" s="1"/>
       <c r="AY163" s="1"/>
     </row>
-    <row r="164" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A164"/>
+    <row r="164" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -9523,8 +9958,7 @@
       <c r="AX164" s="1"/>
       <c r="AY164" s="1"/>
     </row>
-    <row r="165" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A165"/>
+    <row r="165" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -9573,8 +10007,7 @@
       <c r="AX165" s="1"/>
       <c r="AY165" s="1"/>
     </row>
-    <row r="166" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A166"/>
+    <row r="166" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -9623,8 +10056,7 @@
       <c r="AX166" s="1"/>
       <c r="AY166" s="1"/>
     </row>
-    <row r="167" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A167"/>
+    <row r="167" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -9673,8 +10105,7 @@
       <c r="AX167" s="1"/>
       <c r="AY167" s="1"/>
     </row>
-    <row r="168" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A168"/>
+    <row r="168" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -9723,8 +10154,7 @@
       <c r="AX168" s="1"/>
       <c r="AY168" s="1"/>
     </row>
-    <row r="169" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A169"/>
+    <row r="169" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -9773,8 +10203,7 @@
       <c r="AX169" s="1"/>
       <c r="AY169" s="1"/>
     </row>
-    <row r="170" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A170"/>
+    <row r="170" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -9823,8 +10252,7 @@
       <c r="AX170" s="1"/>
       <c r="AY170" s="1"/>
     </row>
-    <row r="171" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A171"/>
+    <row r="171" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -9873,8 +10301,7 @@
       <c r="AX171" s="1"/>
       <c r="AY171" s="1"/>
     </row>
-    <row r="172" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A172"/>
+    <row r="172" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -9923,8 +10350,7 @@
       <c r="AX172" s="1"/>
       <c r="AY172" s="1"/>
     </row>
-    <row r="173" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A173"/>
+    <row r="173" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -9973,8 +10399,7 @@
       <c r="AX173" s="1"/>
       <c r="AY173" s="1"/>
     </row>
-    <row r="174" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A174"/>
+    <row r="174" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -10023,8 +10448,7 @@
       <c r="AX174" s="1"/>
       <c r="AY174" s="1"/>
     </row>
-    <row r="175" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A175"/>
+    <row r="175" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -10073,8 +10497,7 @@
       <c r="AX175" s="1"/>
       <c r="AY175" s="1"/>
     </row>
-    <row r="176" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A176"/>
+    <row r="176" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -10123,8 +10546,7 @@
       <c r="AX176" s="1"/>
       <c r="AY176" s="1"/>
     </row>
-    <row r="177" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A177"/>
+    <row r="177" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -10173,8 +10595,7 @@
       <c r="AX177" s="1"/>
       <c r="AY177" s="1"/>
     </row>
-    <row r="178" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A178"/>
+    <row r="178" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -10223,8 +10644,7 @@
       <c r="AX178" s="1"/>
       <c r="AY178" s="1"/>
     </row>
-    <row r="179" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A179"/>
+    <row r="179" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -10273,8 +10693,7 @@
       <c r="AX179" s="1"/>
       <c r="AY179" s="1"/>
     </row>
-    <row r="180" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A180"/>
+    <row r="180" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -10323,8 +10742,7 @@
       <c r="AX180" s="1"/>
       <c r="AY180" s="1"/>
     </row>
-    <row r="181" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A181"/>
+    <row r="181" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -10373,8 +10791,7 @@
       <c r="AX181" s="1"/>
       <c r="AY181" s="1"/>
     </row>
-    <row r="182" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A182"/>
+    <row r="182" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -10423,8 +10840,7 @@
       <c r="AX182" s="1"/>
       <c r="AY182" s="1"/>
     </row>
-    <row r="183" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A183"/>
+    <row r="183" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -10473,8 +10889,7 @@
       <c r="AX183" s="1"/>
       <c r="AY183" s="1"/>
     </row>
-    <row r="184" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A184"/>
+    <row r="184" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -10523,8 +10938,7 @@
       <c r="AX184" s="1"/>
       <c r="AY184" s="1"/>
     </row>
-    <row r="185" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A185"/>
+    <row r="185" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -10573,8 +10987,7 @@
       <c r="AX185" s="1"/>
       <c r="AY185" s="1"/>
     </row>
-    <row r="186" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A186"/>
+    <row r="186" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -10623,8 +11036,7 @@
       <c r="AX186" s="1"/>
       <c r="AY186" s="1"/>
     </row>
-    <row r="187" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A187"/>
+    <row r="187" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -10673,8 +11085,7 @@
       <c r="AX187" s="1"/>
       <c r="AY187" s="1"/>
     </row>
-    <row r="188" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A188"/>
+    <row r="188" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -10723,8 +11134,7 @@
       <c r="AX188" s="1"/>
       <c r="AY188" s="1"/>
     </row>
-    <row r="189" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A189"/>
+    <row r="189" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -10773,8 +11183,7 @@
       <c r="AX189" s="1"/>
       <c r="AY189" s="1"/>
     </row>
-    <row r="190" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A190"/>
+    <row r="190" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -10823,8 +11232,7 @@
       <c r="AX190" s="1"/>
       <c r="AY190" s="1"/>
     </row>
-    <row r="191" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A191"/>
+    <row r="191" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -10873,8 +11281,7 @@
       <c r="AX191" s="1"/>
       <c r="AY191" s="1"/>
     </row>
-    <row r="192" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A192"/>
+    <row r="192" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -10923,8 +11330,7 @@
       <c r="AX192" s="1"/>
       <c r="AY192" s="1"/>
     </row>
-    <row r="193" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A193"/>
+    <row r="193" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -10973,8 +11379,7 @@
       <c r="AX193" s="1"/>
       <c r="AY193" s="1"/>
     </row>
-    <row r="194" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A194"/>
+    <row r="194" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -11023,8 +11428,7 @@
       <c r="AX194" s="1"/>
       <c r="AY194" s="1"/>
     </row>
-    <row r="195" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A195"/>
+    <row r="195" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -11073,8 +11477,7 @@
       <c r="AX195" s="1"/>
       <c r="AY195" s="1"/>
     </row>
-    <row r="196" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A196"/>
+    <row r="196" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -11123,8 +11526,7 @@
       <c r="AX196" s="1"/>
       <c r="AY196" s="1"/>
     </row>
-    <row r="197" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A197"/>
+    <row r="197" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -11173,8 +11575,7 @@
       <c r="AX197" s="1"/>
       <c r="AY197" s="1"/>
     </row>
-    <row r="198" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A198"/>
+    <row r="198" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -11223,8 +11624,7 @@
       <c r="AX198" s="1"/>
       <c r="AY198" s="1"/>
     </row>
-    <row r="199" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A199"/>
+    <row r="199" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -11273,8 +11673,7 @@
       <c r="AX199" s="1"/>
       <c r="AY199" s="1"/>
     </row>
-    <row r="200" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A200"/>
+    <row r="200" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -11323,8 +11722,7 @@
       <c r="AX200" s="1"/>
       <c r="AY200" s="1"/>
     </row>
-    <row r="201" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A201"/>
+    <row r="201" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -11373,8 +11771,7 @@
       <c r="AX201" s="1"/>
       <c r="AY201" s="1"/>
     </row>
-    <row r="202" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A202"/>
+    <row r="202" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -11423,8 +11820,7 @@
       <c r="AX202" s="1"/>
       <c r="AY202" s="1"/>
     </row>
-    <row r="203" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A203"/>
+    <row r="203" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -11473,8 +11869,7 @@
       <c r="AX203" s="1"/>
       <c r="AY203" s="1"/>
     </row>
-    <row r="204" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A204"/>
+    <row r="204" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -11523,8 +11918,7 @@
       <c r="AX204" s="1"/>
       <c r="AY204" s="1"/>
     </row>
-    <row r="205" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A205"/>
+    <row r="205" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -11573,8 +11967,7 @@
       <c r="AX205" s="1"/>
       <c r="AY205" s="1"/>
     </row>
-    <row r="206" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A206"/>
+    <row r="206" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -11623,8 +12016,7 @@
       <c r="AX206" s="1"/>
       <c r="AY206" s="1"/>
     </row>
-    <row r="207" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A207"/>
+    <row r="207" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -11673,8 +12065,7 @@
       <c r="AX207" s="1"/>
       <c r="AY207" s="1"/>
     </row>
-    <row r="208" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A208"/>
+    <row r="208" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -11723,8 +12114,7 @@
       <c r="AX208" s="1"/>
       <c r="AY208" s="1"/>
     </row>
-    <row r="209" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A209"/>
+    <row r="209" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -11773,8 +12163,7 @@
       <c r="AX209" s="1"/>
       <c r="AY209" s="1"/>
     </row>
-    <row r="210" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A210"/>
+    <row r="210" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -11823,8 +12212,7 @@
       <c r="AX210" s="1"/>
       <c r="AY210" s="1"/>
     </row>
-    <row r="211" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A211"/>
+    <row r="211" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -11873,8 +12261,7 @@
       <c r="AX211" s="1"/>
       <c r="AY211" s="1"/>
     </row>
-    <row r="212" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A212"/>
+    <row r="212" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -11923,8 +12310,7 @@
       <c r="AX212" s="1"/>
       <c r="AY212" s="1"/>
     </row>
-    <row r="213" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A213"/>
+    <row r="213" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -11973,8 +12359,7 @@
       <c r="AX213" s="1"/>
       <c r="AY213" s="1"/>
     </row>
-    <row r="214" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A214"/>
+    <row r="214" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -12023,8 +12408,7 @@
       <c r="AX214" s="1"/>
       <c r="AY214" s="1"/>
     </row>
-    <row r="215" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A215"/>
+    <row r="215" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -12073,8 +12457,7 @@
       <c r="AX215" s="1"/>
       <c r="AY215" s="1"/>
     </row>
-    <row r="216" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A216"/>
+    <row r="216" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -12123,8 +12506,7 @@
       <c r="AX216" s="1"/>
       <c r="AY216" s="1"/>
     </row>
-    <row r="217" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A217"/>
+    <row r="217" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -12173,8 +12555,7 @@
       <c r="AX217" s="1"/>
       <c r="AY217" s="1"/>
     </row>
-    <row r="218" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A218"/>
+    <row r="218" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -12223,8 +12604,7 @@
       <c r="AX218" s="1"/>
       <c r="AY218" s="1"/>
     </row>
-    <row r="219" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A219"/>
+    <row r="219" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -12273,8 +12653,7 @@
       <c r="AX219" s="1"/>
       <c r="AY219" s="1"/>
     </row>
-    <row r="220" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A220"/>
+    <row r="220" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -12323,8 +12702,7 @@
       <c r="AX220" s="1"/>
       <c r="AY220" s="1"/>
     </row>
-    <row r="221" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A221"/>
+    <row r="221" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -12373,8 +12751,7 @@
       <c r="AX221" s="1"/>
       <c r="AY221" s="1"/>
     </row>
-    <row r="222" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A222"/>
+    <row r="222" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -12423,8 +12800,7 @@
       <c r="AX222" s="1"/>
       <c r="AY222" s="1"/>
     </row>
-    <row r="223" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A223"/>
+    <row r="223" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -12473,8 +12849,7 @@
       <c r="AX223" s="1"/>
       <c r="AY223" s="1"/>
     </row>
-    <row r="224" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A224"/>
+    <row r="224" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -12523,8 +12898,7 @@
       <c r="AX224" s="1"/>
       <c r="AY224" s="1"/>
     </row>
-    <row r="225" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A225"/>
+    <row r="225" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -12573,8 +12947,7 @@
       <c r="AX225" s="1"/>
       <c r="AY225" s="1"/>
     </row>
-    <row r="226" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A226"/>
+    <row r="226" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -12623,8 +12996,7 @@
       <c r="AX226" s="1"/>
       <c r="AY226" s="1"/>
     </row>
-    <row r="227" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A227"/>
+    <row r="227" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -12673,8 +13045,7 @@
       <c r="AX227" s="1"/>
       <c r="AY227" s="1"/>
     </row>
-    <row r="228" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A228"/>
+    <row r="228" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -12723,8 +13094,7 @@
       <c r="AX228" s="1"/>
       <c r="AY228" s="1"/>
     </row>
-    <row r="229" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A229"/>
+    <row r="229" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -12773,8 +13143,7 @@
       <c r="AX229" s="1"/>
       <c r="AY229" s="1"/>
     </row>
-    <row r="230" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A230"/>
+    <row r="230" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -12823,8 +13192,7 @@
       <c r="AX230" s="1"/>
       <c r="AY230" s="1"/>
     </row>
-    <row r="231" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A231"/>
+    <row r="231" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -12873,8 +13241,7 @@
       <c r="AX231" s="1"/>
       <c r="AY231" s="1"/>
     </row>
-    <row r="232" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A232"/>
+    <row r="232" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -12923,8 +13290,7 @@
       <c r="AX232" s="1"/>
       <c r="AY232" s="1"/>
     </row>
-    <row r="233" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A233"/>
+    <row r="233" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -12973,8 +13339,7 @@
       <c r="AX233" s="1"/>
       <c r="AY233" s="1"/>
     </row>
-    <row r="234" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A234"/>
+    <row r="234" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -13023,8 +13388,7 @@
       <c r="AX234" s="1"/>
       <c r="AY234" s="1"/>
     </row>
-    <row r="235" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A235"/>
+    <row r="235" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -13073,8 +13437,7 @@
       <c r="AX235" s="1"/>
       <c r="AY235" s="1"/>
     </row>
-    <row r="236" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A236"/>
+    <row r="236" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -13123,8 +13486,7 @@
       <c r="AX236" s="1"/>
       <c r="AY236" s="1"/>
     </row>
-    <row r="237" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A237"/>
+    <row r="237" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -13173,8 +13535,7 @@
       <c r="AX237" s="1"/>
       <c r="AY237" s="1"/>
     </row>
-    <row r="238" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A238"/>
+    <row r="238" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -13223,8 +13584,7 @@
       <c r="AX238" s="1"/>
       <c r="AY238" s="1"/>
     </row>
-    <row r="239" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A239"/>
+    <row r="239" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -13273,8 +13633,7 @@
       <c r="AX239" s="1"/>
       <c r="AY239" s="1"/>
     </row>
-    <row r="240" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A240"/>
+    <row r="240" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -13323,8 +13682,7 @@
       <c r="AX240" s="1"/>
       <c r="AY240" s="1"/>
     </row>
-    <row r="241" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A241"/>
+    <row r="241" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -13373,8 +13731,7 @@
       <c r="AX241" s="1"/>
       <c r="AY241" s="1"/>
     </row>
-    <row r="242" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A242"/>
+    <row r="242" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -13423,8 +13780,7 @@
       <c r="AX242" s="1"/>
       <c r="AY242" s="1"/>
     </row>
-    <row r="243" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A243"/>
+    <row r="243" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -13473,8 +13829,7 @@
       <c r="AX243" s="1"/>
       <c r="AY243" s="1"/>
     </row>
-    <row r="244" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A244"/>
+    <row r="244" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -13523,8 +13878,7 @@
       <c r="AX244" s="1"/>
       <c r="AY244" s="1"/>
     </row>
-    <row r="245" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A245"/>
+    <row r="245" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -13573,8 +13927,7 @@
       <c r="AX245" s="1"/>
       <c r="AY245" s="1"/>
     </row>
-    <row r="246" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A246"/>
+    <row r="246" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -13623,8 +13976,7 @@
       <c r="AX246" s="1"/>
       <c r="AY246" s="1"/>
     </row>
-    <row r="247" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A247"/>
+    <row r="247" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -13673,8 +14025,7 @@
       <c r="AX247" s="1"/>
       <c r="AY247" s="1"/>
     </row>
-    <row r="248" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A248"/>
+    <row r="248" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -13723,8 +14074,7 @@
       <c r="AX248" s="1"/>
       <c r="AY248" s="1"/>
     </row>
-    <row r="249" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A249"/>
+    <row r="249" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -13773,8 +14123,7 @@
       <c r="AX249" s="1"/>
       <c r="AY249" s="1"/>
     </row>
-    <row r="250" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A250"/>
+    <row r="250" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -13823,8 +14172,7 @@
       <c r="AX250" s="1"/>
       <c r="AY250" s="1"/>
     </row>
-    <row r="251" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A251"/>
+    <row r="251" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -13873,8 +14221,7 @@
       <c r="AX251" s="1"/>
       <c r="AY251" s="1"/>
     </row>
-    <row r="252" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A252"/>
+    <row r="252" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -13923,8 +14270,7 @@
       <c r="AX252" s="1"/>
       <c r="AY252" s="1"/>
     </row>
-    <row r="253" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A253"/>
+    <row r="253" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -13973,8 +14319,7 @@
       <c r="AX253" s="1"/>
       <c r="AY253" s="1"/>
     </row>
-    <row r="254" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A254"/>
+    <row r="254" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -14023,8 +14368,7 @@
       <c r="AX254" s="1"/>
       <c r="AY254" s="1"/>
     </row>
-    <row r="255" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A255"/>
+    <row r="255" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -14073,8 +14417,7 @@
       <c r="AX255" s="1"/>
       <c r="AY255" s="1"/>
     </row>
-    <row r="256" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A256"/>
+    <row r="256" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -14123,8 +14466,7 @@
       <c r="AX256" s="1"/>
       <c r="AY256" s="1"/>
     </row>
-    <row r="257" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A257"/>
+    <row r="257" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -14173,8 +14515,7 @@
       <c r="AX257" s="1"/>
       <c r="AY257" s="1"/>
     </row>
-    <row r="258" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A258"/>
+    <row r="258" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -14223,8 +14564,7 @@
       <c r="AX258" s="1"/>
       <c r="AY258" s="1"/>
     </row>
-    <row r="259" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A259"/>
+    <row r="259" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -14273,8 +14613,7 @@
       <c r="AX259" s="1"/>
       <c r="AY259" s="1"/>
     </row>
-    <row r="260" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A260"/>
+    <row r="260" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -14323,8 +14662,7 @@
       <c r="AX260" s="1"/>
       <c r="AY260" s="1"/>
     </row>
-    <row r="261" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A261"/>
+    <row r="261" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -14373,8 +14711,7 @@
       <c r="AX261" s="1"/>
       <c r="AY261" s="1"/>
     </row>
-    <row r="262" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A262"/>
+    <row r="262" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -14423,8 +14760,7 @@
       <c r="AX262" s="1"/>
       <c r="AY262" s="1"/>
     </row>
-    <row r="263" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A263"/>
+    <row r="263" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -14473,8 +14809,7 @@
       <c r="AX263" s="1"/>
       <c r="AY263" s="1"/>
     </row>
-    <row r="264" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A264"/>
+    <row r="264" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -14523,8 +14858,7 @@
       <c r="AX264" s="1"/>
       <c r="AY264" s="1"/>
     </row>
-    <row r="265" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A265"/>
+    <row r="265" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -14573,8 +14907,7 @@
       <c r="AX265" s="1"/>
       <c r="AY265" s="1"/>
     </row>
-    <row r="266" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A266"/>
+    <row r="266" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -14623,8 +14956,7 @@
       <c r="AX266" s="1"/>
       <c r="AY266" s="1"/>
     </row>
-    <row r="267" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A267"/>
+    <row r="267" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -14673,8 +15005,7 @@
       <c r="AX267" s="1"/>
       <c r="AY267" s="1"/>
     </row>
-    <row r="268" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A268"/>
+    <row r="268" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -14723,8 +15054,7 @@
       <c r="AX268" s="1"/>
       <c r="AY268" s="1"/>
     </row>
-    <row r="269" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A269"/>
+    <row r="269" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -14773,8 +15103,7 @@
       <c r="AX269" s="1"/>
       <c r="AY269" s="1"/>
     </row>
-    <row r="270" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A270"/>
+    <row r="270" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -14823,8 +15152,7 @@
       <c r="AX270" s="1"/>
       <c r="AY270" s="1"/>
     </row>
-    <row r="271" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A271"/>
+    <row r="271" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -14873,8 +15201,7 @@
       <c r="AX271" s="1"/>
       <c r="AY271" s="1"/>
     </row>
-    <row r="272" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A272"/>
+    <row r="272" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -14923,8 +15250,7 @@
       <c r="AX272" s="1"/>
       <c r="AY272" s="1"/>
     </row>
-    <row r="273" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A273"/>
+    <row r="273" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -14973,8 +15299,7 @@
       <c r="AX273" s="1"/>
       <c r="AY273" s="1"/>
     </row>
-    <row r="274" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A274"/>
+    <row r="274" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -15023,8 +15348,7 @@
       <c r="AX274" s="1"/>
       <c r="AY274" s="1"/>
     </row>
-    <row r="275" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A275"/>
+    <row r="275" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -15073,8 +15397,7 @@
       <c r="AX275" s="1"/>
       <c r="AY275" s="1"/>
     </row>
-    <row r="276" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A276"/>
+    <row r="276" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -15123,8 +15446,7 @@
       <c r="AX276" s="1"/>
       <c r="AY276" s="1"/>
     </row>
-    <row r="277" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A277"/>
+    <row r="277" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -15173,8 +15495,7 @@
       <c r="AX277" s="1"/>
       <c r="AY277" s="1"/>
     </row>
-    <row r="278" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A278"/>
+    <row r="278" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -15223,8 +15544,7 @@
       <c r="AX278" s="1"/>
       <c r="AY278" s="1"/>
     </row>
-    <row r="279" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A279"/>
+    <row r="279" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -15273,8 +15593,7 @@
       <c r="AX279" s="1"/>
       <c r="AY279" s="1"/>
     </row>
-    <row r="280" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A280"/>
+    <row r="280" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -15323,8 +15642,7 @@
       <c r="AX280" s="1"/>
       <c r="AY280" s="1"/>
     </row>
-    <row r="281" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A281"/>
+    <row r="281" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -15373,8 +15691,7 @@
       <c r="AX281" s="1"/>
       <c r="AY281" s="1"/>
     </row>
-    <row r="282" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A282"/>
+    <row r="282" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -15423,8 +15740,7 @@
       <c r="AX282" s="1"/>
       <c r="AY282" s="1"/>
     </row>
-    <row r="283" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A283"/>
+    <row r="283" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -15473,8 +15789,7 @@
       <c r="AX283" s="1"/>
       <c r="AY283" s="1"/>
     </row>
-    <row r="284" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A284"/>
+    <row r="284" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -15523,8 +15838,7 @@
       <c r="AX284" s="1"/>
       <c r="AY284" s="1"/>
     </row>
-    <row r="285" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A285"/>
+    <row r="285" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -15573,8 +15887,7 @@
       <c r="AX285" s="1"/>
       <c r="AY285" s="1"/>
     </row>
-    <row r="286" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A286"/>
+    <row r="286" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -15623,8 +15936,7 @@
       <c r="AX286" s="1"/>
       <c r="AY286" s="1"/>
     </row>
-    <row r="287" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A287"/>
+    <row r="287" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -15673,8 +15985,7 @@
       <c r="AX287" s="1"/>
       <c r="AY287" s="1"/>
     </row>
-    <row r="288" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A288"/>
+    <row r="288" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -15723,8 +16034,7 @@
       <c r="AX288" s="1"/>
       <c r="AY288" s="1"/>
     </row>
-    <row r="289" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A289"/>
+    <row r="289" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -15773,8 +16083,7 @@
       <c r="AX289" s="1"/>
       <c r="AY289" s="1"/>
     </row>
-    <row r="290" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A290"/>
+    <row r="290" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -15823,8 +16132,7 @@
       <c r="AX290" s="1"/>
       <c r="AY290" s="1"/>
     </row>
-    <row r="291" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A291"/>
+    <row r="291" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -15873,8 +16181,7 @@
       <c r="AX291" s="1"/>
       <c r="AY291" s="1"/>
     </row>
-    <row r="292" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A292"/>
+    <row r="292" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -15923,8 +16230,7 @@
       <c r="AX292" s="1"/>
       <c r="AY292" s="1"/>
     </row>
-    <row r="293" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A293"/>
+    <row r="293" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -15973,8 +16279,7 @@
       <c r="AX293" s="1"/>
       <c r="AY293" s="1"/>
     </row>
-    <row r="294" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A294"/>
+    <row r="294" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -16023,8 +16328,7 @@
       <c r="AX294" s="1"/>
       <c r="AY294" s="1"/>
     </row>
-    <row r="295" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A295"/>
+    <row r="295" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -16073,8 +16377,7 @@
       <c r="AX295" s="1"/>
       <c r="AY295" s="1"/>
     </row>
-    <row r="296" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A296"/>
+    <row r="296" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -16123,8 +16426,7 @@
       <c r="AX296" s="1"/>
       <c r="AY296" s="1"/>
     </row>
-    <row r="297" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A297"/>
+    <row r="297" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -16173,8 +16475,7 @@
       <c r="AX297" s="1"/>
       <c r="AY297" s="1"/>
     </row>
-    <row r="298" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A298"/>
+    <row r="298" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -16223,8 +16524,7 @@
       <c r="AX298" s="1"/>
       <c r="AY298" s="1"/>
     </row>
-    <row r="299" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A299"/>
+    <row r="299" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -16273,8 +16573,7 @@
       <c r="AX299" s="1"/>
       <c r="AY299" s="1"/>
     </row>
-    <row r="300" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A300"/>
+    <row r="300" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -16323,8 +16622,7 @@
       <c r="AX300" s="1"/>
       <c r="AY300" s="1"/>
     </row>
-    <row r="301" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A301"/>
+    <row r="301" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -16373,8 +16671,7 @@
       <c r="AX301" s="1"/>
       <c r="AY301" s="1"/>
     </row>
-    <row r="302" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A302"/>
+    <row r="302" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -16423,8 +16720,7 @@
       <c r="AX302" s="1"/>
       <c r="AY302" s="1"/>
     </row>
-    <row r="303" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A303"/>
+    <row r="303" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -16473,8 +16769,7 @@
       <c r="AX303" s="1"/>
       <c r="AY303" s="1"/>
     </row>
-    <row r="304" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A304"/>
+    <row r="304" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -16523,8 +16818,7 @@
       <c r="AX304" s="1"/>
       <c r="AY304" s="1"/>
     </row>
-    <row r="305" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A305"/>
+    <row r="305" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -16573,8 +16867,7 @@
       <c r="AX305" s="1"/>
       <c r="AY305" s="1"/>
     </row>
-    <row r="306" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A306"/>
+    <row r="306" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -16623,8 +16916,7 @@
       <c r="AX306" s="1"/>
       <c r="AY306" s="1"/>
     </row>
-    <row r="307" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A307"/>
+    <row r="307" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -16673,8 +16965,7 @@
       <c r="AX307" s="1"/>
       <c r="AY307" s="1"/>
     </row>
-    <row r="308" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A308"/>
+    <row r="308" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -16723,8 +17014,7 @@
       <c r="AX308" s="1"/>
       <c r="AY308" s="1"/>
     </row>
-    <row r="309" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A309"/>
+    <row r="309" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -16773,8 +17063,7 @@
       <c r="AX309" s="1"/>
       <c r="AY309" s="1"/>
     </row>
-    <row r="310" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A310"/>
+    <row r="310" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -16823,8 +17112,7 @@
       <c r="AX310" s="1"/>
       <c r="AY310" s="1"/>
     </row>
-    <row r="311" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A311"/>
+    <row r="311" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -16873,8 +17161,7 @@
       <c r="AX311" s="1"/>
       <c r="AY311" s="1"/>
     </row>
-    <row r="312" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A312"/>
+    <row r="312" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -16923,8 +17210,7 @@
       <c r="AX312" s="1"/>
       <c r="AY312" s="1"/>
     </row>
-    <row r="313" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A313"/>
+    <row r="313" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -16973,8 +17259,7 @@
       <c r="AX313" s="1"/>
       <c r="AY313" s="1"/>
     </row>
-    <row r="314" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A314"/>
+    <row r="314" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -17023,8 +17308,7 @@
       <c r="AX314" s="1"/>
       <c r="AY314" s="1"/>
     </row>
-    <row r="315" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A315"/>
+    <row r="315" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -17073,8 +17357,7 @@
       <c r="AX315" s="1"/>
       <c r="AY315" s="1"/>
     </row>
-    <row r="316" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A316"/>
+    <row r="316" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -17123,8 +17406,7 @@
       <c r="AX316" s="1"/>
       <c r="AY316" s="1"/>
     </row>
-    <row r="317" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A317"/>
+    <row r="317" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -17173,8 +17455,7 @@
       <c r="AX317" s="1"/>
       <c r="AY317" s="1"/>
     </row>
-    <row r="318" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A318"/>
+    <row r="318" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -17223,8 +17504,7 @@
       <c r="AX318" s="1"/>
       <c r="AY318" s="1"/>
     </row>
-    <row r="319" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A319"/>
+    <row r="319" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -17273,8 +17553,7 @@
       <c r="AX319" s="1"/>
       <c r="AY319" s="1"/>
     </row>
-    <row r="320" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A320"/>
+    <row r="320" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -17323,8 +17602,7 @@
       <c r="AX320" s="1"/>
       <c r="AY320" s="1"/>
     </row>
-    <row r="321" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A321"/>
+    <row r="321" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -17373,8 +17651,7 @@
       <c r="AX321" s="1"/>
       <c r="AY321" s="1"/>
     </row>
-    <row r="322" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A322"/>
+    <row r="322" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -17423,8 +17700,7 @@
       <c r="AX322" s="1"/>
       <c r="AY322" s="1"/>
     </row>
-    <row r="323" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A323"/>
+    <row r="323" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -17473,8 +17749,7 @@
       <c r="AX323" s="1"/>
       <c r="AY323" s="1"/>
     </row>
-    <row r="324" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A324"/>
+    <row r="324" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -17523,8 +17798,7 @@
       <c r="AX324" s="1"/>
       <c r="AY324" s="1"/>
     </row>
-    <row r="325" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A325"/>
+    <row r="325" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -17573,8 +17847,7 @@
       <c r="AX325" s="1"/>
       <c r="AY325" s="1"/>
     </row>
-    <row r="326" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A326"/>
+    <row r="326" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -17623,8 +17896,7 @@
       <c r="AX326" s="1"/>
       <c r="AY326" s="1"/>
     </row>
-    <row r="327" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A327"/>
+    <row r="327" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -17673,8 +17945,7 @@
       <c r="AX327" s="1"/>
       <c r="AY327" s="1"/>
     </row>
-    <row r="328" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A328"/>
+    <row r="328" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -17723,8 +17994,7 @@
       <c r="AX328" s="1"/>
       <c r="AY328" s="1"/>
     </row>
-    <row r="329" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A329"/>
+    <row r="329" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -17773,8 +18043,7 @@
       <c r="AX329" s="1"/>
       <c r="AY329" s="1"/>
     </row>
-    <row r="330" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A330"/>
+    <row r="330" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -17823,8 +18092,7 @@
       <c r="AX330" s="1"/>
       <c r="AY330" s="1"/>
     </row>
-    <row r="331" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A331"/>
+    <row r="331" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -17873,8 +18141,7 @@
       <c r="AX331" s="1"/>
       <c r="AY331" s="1"/>
     </row>
-    <row r="332" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A332"/>
+    <row r="332" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -17923,8 +18190,7 @@
       <c r="AX332" s="1"/>
       <c r="AY332" s="1"/>
     </row>
-    <row r="333" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A333"/>
+    <row r="333" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -17973,8 +18239,7 @@
       <c r="AX333" s="1"/>
       <c r="AY333" s="1"/>
     </row>
-    <row r="334" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A334"/>
+    <row r="334" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -18023,8 +18288,7 @@
       <c r="AX334" s="1"/>
       <c r="AY334" s="1"/>
     </row>
-    <row r="335" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A335"/>
+    <row r="335" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -18073,8 +18337,7 @@
       <c r="AX335" s="1"/>
       <c r="AY335" s="1"/>
     </row>
-    <row r="336" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A336"/>
+    <row r="336" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -18123,8 +18386,7 @@
       <c r="AX336" s="1"/>
       <c r="AY336" s="1"/>
     </row>
-    <row r="337" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A337"/>
+    <row r="337" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -18173,8 +18435,7 @@
       <c r="AX337" s="1"/>
       <c r="AY337" s="1"/>
     </row>
-    <row r="338" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A338"/>
+    <row r="338" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -18223,8 +18484,7 @@
       <c r="AX338" s="1"/>
       <c r="AY338" s="1"/>
     </row>
-    <row r="339" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A339"/>
+    <row r="339" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -18273,8 +18533,7 @@
       <c r="AX339" s="1"/>
       <c r="AY339" s="1"/>
     </row>
-    <row r="340" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A340"/>
+    <row r="340" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -18323,8 +18582,7 @@
       <c r="AX340" s="1"/>
       <c r="AY340" s="1"/>
     </row>
-    <row r="341" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A341"/>
+    <row r="341" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -18373,8 +18631,7 @@
       <c r="AX341" s="1"/>
       <c r="AY341" s="1"/>
     </row>
-    <row r="342" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A342"/>
+    <row r="342" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -18423,8 +18680,7 @@
       <c r="AX342" s="1"/>
       <c r="AY342" s="1"/>
     </row>
-    <row r="343" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A343"/>
+    <row r="343" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -18473,8 +18729,7 @@
       <c r="AX343" s="1"/>
       <c r="AY343" s="1"/>
     </row>
-    <row r="344" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A344"/>
+    <row r="344" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -18523,8 +18778,7 @@
       <c r="AX344" s="1"/>
       <c r="AY344" s="1"/>
     </row>
-    <row r="345" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A345"/>
+    <row r="345" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -18573,8 +18827,7 @@
       <c r="AX345" s="1"/>
       <c r="AY345" s="1"/>
     </row>
-    <row r="346" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A346"/>
+    <row r="346" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -18623,8 +18876,7 @@
       <c r="AX346" s="1"/>
       <c r="AY346" s="1"/>
     </row>
-    <row r="347" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A347"/>
+    <row r="347" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -18673,8 +18925,7 @@
       <c r="AX347" s="1"/>
       <c r="AY347" s="1"/>
     </row>
-    <row r="348" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A348"/>
+    <row r="348" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -18723,8 +18974,7 @@
       <c r="AX348" s="1"/>
       <c r="AY348" s="1"/>
     </row>
-    <row r="349" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A349"/>
+    <row r="349" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -18773,8 +19023,7 @@
       <c r="AX349" s="1"/>
       <c r="AY349" s="1"/>
     </row>
-    <row r="350" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A350"/>
+    <row r="350" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -18823,8 +19072,7 @@
       <c r="AX350" s="1"/>
       <c r="AY350" s="1"/>
     </row>
-    <row r="351" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A351"/>
+    <row r="351" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -18873,8 +19121,7 @@
       <c r="AX351" s="1"/>
       <c r="AY351" s="1"/>
     </row>
-    <row r="352" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A352"/>
+    <row r="352" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -18923,8 +19170,7 @@
       <c r="AX352" s="1"/>
       <c r="AY352" s="1"/>
     </row>
-    <row r="353" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A353"/>
+    <row r="353" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -18973,8 +19219,7 @@
       <c r="AX353" s="1"/>
       <c r="AY353" s="1"/>
     </row>
-    <row r="354" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A354"/>
+    <row r="354" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -19023,8 +19268,7 @@
       <c r="AX354" s="1"/>
       <c r="AY354" s="1"/>
     </row>
-    <row r="355" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A355"/>
+    <row r="355" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -19073,8 +19317,7 @@
       <c r="AX355" s="1"/>
       <c r="AY355" s="1"/>
     </row>
-    <row r="356" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A356"/>
+    <row r="356" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -19123,8 +19366,7 @@
       <c r="AX356" s="1"/>
       <c r="AY356" s="1"/>
     </row>
-    <row r="357" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A357"/>
+    <row r="357" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -19173,8 +19415,7 @@
       <c r="AX357" s="1"/>
       <c r="AY357" s="1"/>
     </row>
-    <row r="358" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A358"/>
+    <row r="358" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -19223,8 +19464,7 @@
       <c r="AX358" s="1"/>
       <c r="AY358" s="1"/>
     </row>
-    <row r="359" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A359"/>
+    <row r="359" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -19273,8 +19513,7 @@
       <c r="AX359" s="1"/>
       <c r="AY359" s="1"/>
     </row>
-    <row r="360" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A360"/>
+    <row r="360" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -19323,8 +19562,7 @@
       <c r="AX360" s="1"/>
       <c r="AY360" s="1"/>
     </row>
-    <row r="361" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A361"/>
+    <row r="361" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -19373,8 +19611,7 @@
       <c r="AX361" s="1"/>
       <c r="AY361" s="1"/>
     </row>
-    <row r="362" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A362"/>
+    <row r="362" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -19423,8 +19660,7 @@
       <c r="AX362" s="1"/>
       <c r="AY362" s="1"/>
     </row>
-    <row r="363" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A363"/>
+    <row r="363" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -19473,8 +19709,7 @@
       <c r="AX363" s="1"/>
       <c r="AY363" s="1"/>
     </row>
-    <row r="364" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A364"/>
+    <row r="364" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -19523,8 +19758,7 @@
       <c r="AX364" s="1"/>
       <c r="AY364" s="1"/>
     </row>
-    <row r="365" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A365"/>
+    <row r="365" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -19573,8 +19807,7 @@
       <c r="AX365" s="1"/>
       <c r="AY365" s="1"/>
     </row>
-    <row r="366" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A366"/>
+    <row r="366" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -19623,8 +19856,7 @@
       <c r="AX366" s="1"/>
       <c r="AY366" s="1"/>
     </row>
-    <row r="367" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A367"/>
+    <row r="367" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -19673,8 +19905,7 @@
       <c r="AX367" s="1"/>
       <c r="AY367" s="1"/>
     </row>
-    <row r="368" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A368"/>
+    <row r="368" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -19723,8 +19954,7 @@
       <c r="AX368" s="1"/>
       <c r="AY368" s="1"/>
     </row>
-    <row r="369" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A369"/>
+    <row r="369" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -19773,8 +20003,7 @@
       <c r="AX369" s="1"/>
       <c r="AY369" s="1"/>
     </row>
-    <row r="370" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A370"/>
+    <row r="370" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -19823,8 +20052,7 @@
       <c r="AX370" s="1"/>
       <c r="AY370" s="1"/>
     </row>
-    <row r="371" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A371"/>
+    <row r="371" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -19873,8 +20101,7 @@
       <c r="AX371" s="1"/>
       <c r="AY371" s="1"/>
     </row>
-    <row r="372" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A372"/>
+    <row r="372" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -19923,8 +20150,7 @@
       <c r="AX372" s="1"/>
       <c r="AY372" s="1"/>
     </row>
-    <row r="373" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A373"/>
+    <row r="373" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -19973,8 +20199,7 @@
       <c r="AX373" s="1"/>
       <c r="AY373" s="1"/>
     </row>
-    <row r="374" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A374"/>
+    <row r="374" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -20023,8 +20248,7 @@
       <c r="AX374" s="1"/>
       <c r="AY374" s="1"/>
     </row>
-    <row r="375" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A375"/>
+    <row r="375" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -20073,8 +20297,7 @@
       <c r="AX375" s="1"/>
       <c r="AY375" s="1"/>
     </row>
-    <row r="376" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A376"/>
+    <row r="376" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -20123,8 +20346,7 @@
       <c r="AX376" s="1"/>
       <c r="AY376" s="1"/>
     </row>
-    <row r="377" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A377"/>
+    <row r="377" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -20173,8 +20395,7 @@
       <c r="AX377" s="1"/>
       <c r="AY377" s="1"/>
     </row>
-    <row r="378" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A378"/>
+    <row r="378" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -20223,8 +20444,7 @@
       <c r="AX378" s="1"/>
       <c r="AY378" s="1"/>
     </row>
-    <row r="379" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A379"/>
+    <row r="379" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -20273,8 +20493,7 @@
       <c r="AX379" s="1"/>
       <c r="AY379" s="1"/>
     </row>
-    <row r="380" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A380"/>
+    <row r="380" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -20323,8 +20542,7 @@
       <c r="AX380" s="1"/>
       <c r="AY380" s="1"/>
     </row>
-    <row r="381" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A381"/>
+    <row r="381" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -20373,8 +20591,7 @@
       <c r="AX381" s="1"/>
       <c r="AY381" s="1"/>
     </row>
-    <row r="382" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A382"/>
+    <row r="382" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -20423,8 +20640,7 @@
       <c r="AX382" s="1"/>
       <c r="AY382" s="1"/>
     </row>
-    <row r="383" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A383"/>
+    <row r="383" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -20473,8 +20689,7 @@
       <c r="AX383" s="1"/>
       <c r="AY383" s="1"/>
     </row>
-    <row r="384" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A384"/>
+    <row r="384" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -20523,8 +20738,7 @@
       <c r="AX384" s="1"/>
       <c r="AY384" s="1"/>
     </row>
-    <row r="385" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A385"/>
+    <row r="385" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -20573,8 +20787,7 @@
       <c r="AX385" s="1"/>
       <c r="AY385" s="1"/>
     </row>
-    <row r="386" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A386"/>
+    <row r="386" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -20623,8 +20836,7 @@
       <c r="AX386" s="1"/>
       <c r="AY386" s="1"/>
     </row>
-    <row r="387" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A387"/>
+    <row r="387" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -20673,8 +20885,7 @@
       <c r="AX387" s="1"/>
       <c r="AY387" s="1"/>
     </row>
-    <row r="388" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A388"/>
+    <row r="388" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -20723,8 +20934,7 @@
       <c r="AX388" s="1"/>
       <c r="AY388" s="1"/>
     </row>
-    <row r="389" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A389"/>
+    <row r="389" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -20773,8 +20983,7 @@
       <c r="AX389" s="1"/>
       <c r="AY389" s="1"/>
     </row>
-    <row r="390" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A390"/>
+    <row r="390" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -20823,8 +21032,7 @@
       <c r="AX390" s="1"/>
       <c r="AY390" s="1"/>
     </row>
-    <row r="391" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A391"/>
+    <row r="391" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -20873,8 +21081,7 @@
       <c r="AX391" s="1"/>
       <c r="AY391" s="1"/>
     </row>
-    <row r="392" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A392"/>
+    <row r="392" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -20923,8 +21130,7 @@
       <c r="AX392" s="1"/>
       <c r="AY392" s="1"/>
     </row>
-    <row r="393" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A393"/>
+    <row r="393" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -20973,8 +21179,7 @@
       <c r="AX393" s="1"/>
       <c r="AY393" s="1"/>
     </row>
-    <row r="394" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A394"/>
+    <row r="394" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -21023,8 +21228,7 @@
       <c r="AX394" s="1"/>
       <c r="AY394" s="1"/>
     </row>
-    <row r="395" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A395"/>
+    <row r="395" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -21073,8 +21277,7 @@
       <c r="AX395" s="1"/>
       <c r="AY395" s="1"/>
     </row>
-    <row r="396" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A396"/>
+    <row r="396" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -21123,8 +21326,7 @@
       <c r="AX396" s="1"/>
       <c r="AY396" s="1"/>
     </row>
-    <row r="397" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A397"/>
+    <row r="397" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -21173,8 +21375,7 @@
       <c r="AX397" s="1"/>
       <c r="AY397" s="1"/>
     </row>
-    <row r="398" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A398"/>
+    <row r="398" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -21223,8 +21424,7 @@
       <c r="AX398" s="1"/>
       <c r="AY398" s="1"/>
     </row>
-    <row r="399" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A399"/>
+    <row r="399" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -21273,8 +21473,7 @@
       <c r="AX399" s="1"/>
       <c r="AY399" s="1"/>
     </row>
-    <row r="400" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A400"/>
+    <row r="400" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -21323,8 +21522,7 @@
       <c r="AX400" s="1"/>
       <c r="AY400" s="1"/>
     </row>
-    <row r="401" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A401"/>
+    <row r="401" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -21373,8 +21571,7 @@
       <c r="AX401" s="1"/>
       <c r="AY401" s="1"/>
     </row>
-    <row r="402" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A402"/>
+    <row r="402" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -21423,8 +21620,7 @@
       <c r="AX402" s="1"/>
       <c r="AY402" s="1"/>
     </row>
-    <row r="403" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A403"/>
+    <row r="403" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -21473,8 +21669,7 @@
       <c r="AX403" s="1"/>
       <c r="AY403" s="1"/>
     </row>
-    <row r="404" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A404"/>
+    <row r="404" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -21523,8 +21718,7 @@
       <c r="AX404" s="1"/>
       <c r="AY404" s="1"/>
     </row>
-    <row r="405" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A405"/>
+    <row r="405" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -21573,8 +21767,7 @@
       <c r="AX405" s="1"/>
       <c r="AY405" s="1"/>
     </row>
-    <row r="406" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A406"/>
+    <row r="406" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -21623,8 +21816,7 @@
       <c r="AX406" s="1"/>
       <c r="AY406" s="1"/>
     </row>
-    <row r="407" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A407"/>
+    <row r="407" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -21673,8 +21865,7 @@
       <c r="AX407" s="1"/>
       <c r="AY407" s="1"/>
     </row>
-    <row r="408" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A408"/>
+    <row r="408" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -21723,8 +21914,7 @@
       <c r="AX408" s="1"/>
       <c r="AY408" s="1"/>
     </row>
-    <row r="409" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A409"/>
+    <row r="409" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -21773,8 +21963,7 @@
       <c r="AX409" s="1"/>
       <c r="AY409" s="1"/>
     </row>
-    <row r="410" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A410"/>
+    <row r="410" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -21823,8 +22012,7 @@
       <c r="AX410" s="1"/>
       <c r="AY410" s="1"/>
     </row>
-    <row r="411" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A411"/>
+    <row r="411" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -21873,8 +22061,7 @@
       <c r="AX411" s="1"/>
       <c r="AY411" s="1"/>
     </row>
-    <row r="412" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A412"/>
+    <row r="412" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -21923,8 +22110,7 @@
       <c r="AX412" s="1"/>
       <c r="AY412" s="1"/>
     </row>
-    <row r="413" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A413"/>
+    <row r="413" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -21973,8 +22159,7 @@
       <c r="AX413" s="1"/>
       <c r="AY413" s="1"/>
     </row>
-    <row r="414" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A414"/>
+    <row r="414" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -22023,8 +22208,7 @@
       <c r="AX414" s="1"/>
       <c r="AY414" s="1"/>
     </row>
-    <row r="415" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A415"/>
+    <row r="415" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -22073,8 +22257,7 @@
       <c r="AX415" s="1"/>
       <c r="AY415" s="1"/>
     </row>
-    <row r="416" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A416"/>
+    <row r="416" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -22123,8 +22306,7 @@
       <c r="AX416" s="1"/>
       <c r="AY416" s="1"/>
     </row>
-    <row r="417" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A417"/>
+    <row r="417" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -22179,38 +22361,358 @@
     <sortCondition descending="1" ref="I7:I46"/>
   </sortState>
   <mergeCells count="5">
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B16:C24"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B16:C24"/>
   </mergeCells>
-  <conditionalFormatting sqref="I7:I55">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="4">
+  <conditionalFormatting sqref="I7:I8 I12 I14 I17:I18 I21:I22 I26:I28 I30 I33:I34 I42 I46:I55 I24 I37:I38 I40 I44">
+    <cfRule type="containsText" dxfId="79" priority="77" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",I7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",I7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",I7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="containsText" dxfId="75" priority="73" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="64" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E52 G36 G52 I7:I55" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E52 G52 I7:I55 G36" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$B$7:$B$10</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1" display=". " xr:uid="{348DF8D9-A9CB-4FB5-9328-C75D38081DB9}"/>
+    <hyperlink ref="G17" r:id="rId2" display="did a project of nextay in software engineering course" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G24" r:id="rId5" location="e6c6ef" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G30" r:id="rId6" display="did this in a school management system in my DB course" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G34" r:id="rId7" display="did this in school management system of my DB course" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G40" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G44" r:id="rId10" location="4466cb" display="did in research paper and face recognition attendance system in AI course" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G10" r:id="rId11" display="Developed Front end for multiple semester projects" xr:uid="{1FE94EC5-42DD-44A9-A798-266554FE8ACE}"/>
+    <hyperlink ref="G13" r:id="rId12" display="Experienced in debugging and testing multiple projects efficiently, ensuring quality and performance." xr:uid="{8601B9A4-742D-4F3B-8E58-0257991D0B81}"/>
+    <hyperlink ref="G15" r:id="rId13" display="Gained hands-on experience in efficiently managing two projects." xr:uid="{8768E704-1BC3-49C0-9BB4-D514E645387A}"/>
+    <hyperlink ref="G20" r:id="rId14" display="Demonstrated strong leadership skills by successfully leading 4 projects, ensuring collaboration and efficiency." xr:uid="{B2605A87-55ED-42BD-82FA-116E29ABE89A}"/>
+    <hyperlink ref="G25" r:id="rId15" display="Moderate expertise in documentation, managing in 3 semesters." xr:uid="{F64AD381-3C95-4DA3-8C9B-C22F1EAEA4E4}"/>
+    <hyperlink ref="G29" r:id="rId16" display="Moderate experience in decision-making, with the ability to analyze situations and make effective choices." xr:uid="{CA0852F0-6520-4ED3-91D6-B30899EFE45F}"/>
+    <hyperlink ref="G32" r:id="rId17" display="Designed and maintained database systems for five projects." xr:uid="{98E4BA26-3081-45E5-A0E3-D0D8EC9456F7}"/>
+    <hyperlink ref="G41" r:id="rId18" display="Moderate expertise in API management, ensuring seamless integration and functionality." xr:uid="{A13C94CF-4159-4EC7-9731-3E65ADEA4AB2}"/>
+    <hyperlink ref="G45" r:id="rId19" display="Developed two projects integrating AI and ML engineering." xr:uid="{A224E4E3-C361-4781-9AE1-378A86A9A845}"/>
+    <hyperlink ref="G9" r:id="rId20" xr:uid="{36A3C3DD-CF92-49E3-8C71-757E7F749449}"/>
+    <hyperlink ref="G11" r:id="rId21" xr:uid="{B3182712-BC08-4BCB-823B-0A10811EF85E}"/>
+    <hyperlink ref="G16" r:id="rId22" xr:uid="{8DDF7EFB-8677-4863-B971-04FE08EA8C61}"/>
+    <hyperlink ref="G19" r:id="rId23" xr:uid="{623FA5A8-B92D-42E6-949B-04CEFB8473C7}"/>
+    <hyperlink ref="G23" r:id="rId24" location="1ba575" xr:uid="{6DD2BE03-FBDB-4336-AF62-48E93529D97C}"/>
+    <hyperlink ref="G31" r:id="rId25" xr:uid="{9B9A0FCA-932F-42AA-8DCB-CD599966173F}"/>
+    <hyperlink ref="G35" r:id="rId26" xr:uid="{1B09259A-6ABE-44EB-B9C2-719AF373DCC5}"/>
+    <hyperlink ref="G39" r:id="rId27" xr:uid="{CEBEA278-DC8C-427E-8E0B-4FD256CB4916}"/>
+    <hyperlink ref="G43" r:id="rId28" xr:uid="{57A3D356-2698-41DC-8500-C8B26ED43C2F}"/>
+    <hyperlink ref="G14" r:id="rId29" xr:uid="{1E3AAA00-5DCE-4E64-BD5D-D9092E8DC4A8}"/>
+    <hyperlink ref="G18" r:id="rId30" display="Successfully led and managed four semester projects, ensuring timely delivery." xr:uid="{1AF93031-F733-4037-95FA-A3F1491CAB52}"/>
+    <hyperlink ref="G21" r:id="rId31" display="Led teams for four academic projects, ensuring collaboration and efficiency." xr:uid="{E0EA5465-0588-48B5-9A1E-F31EC426EDC1}"/>
+    <hyperlink ref="G26" r:id="rId32" location="96db55" display="Wrote project documentation for semester projects. " xr:uid="{EA76C867-0390-4995-B8E1-E037CDB85CF7}"/>
+    <hyperlink ref="G33" r:id="rId33" display="Engineered and optimized databases for four projects." xr:uid="{CC10C752-459C-4675-B9E4-DD5B912F06A2}"/>
+    <hyperlink ref="G36" r:id="rId34" xr:uid="{9AF3F6DA-48CE-478D-A961-0CC7F9FACB66}"/>
+    <hyperlink ref="G38" r:id="rId35" display="Implemented backend functionalities for two semester-long projects." xr:uid="{0B6A7893-532D-4298-AF3D-D9653B7529B0}"/>
+    <hyperlink ref="G42" r:id="rId36" display="Integrated and managed APIs in a semester project. " xr:uid="{84B99EAF-CD05-423D-B2CB-147D82459F31}"/>
+    <hyperlink ref="G46" r:id="rId37" display="Gained hands-on experience with AI-based solutions in a project." xr:uid="{46085477-AB68-400F-9B08-AE98821AD333}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
+  <drawing r:id="rId39"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063BAC33E40A8AB4AB9A126D298799E78" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="393e3809860021ea4b53ed9d1e2ad736">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9926c504-9366-4d27-ba67-e7df4b72c3ca" xmlns:ns4="675b2d5a-2a5b-4198-b316-84224b1699b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94008880fd668028e4b73c345dde1642" ns3:_="" ns4:_="">
     <xsd:import namespace="9926c504-9366-4d27-ba67-e7df4b72c3ca"/>
@@ -22427,22 +22929,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC69FD84-4722-485B-95F5-B25971BB4485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="675b2d5a-2a5b-4198-b316-84224b1699b9"/>
+    <ds:schemaRef ds:uri="9926c504-9366-4d27-ba67-e7df4b72c3ca"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8166D80B-5C7E-4401-9B25-09A4D3E293DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED16D48-9510-40B0-BBC1-A62A264ED743}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22459,29 +22971,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8166D80B-5C7E-4401-9B25-09A4D3E293DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC69FD84-4722-485B-95F5-B25971BB4485}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="675b2d5a-2a5b-4198-b316-84224b1699b9"/>
-    <ds:schemaRef ds:uri="9926c504-9366-4d27-ba67-e7df4b72c3ca"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/Kickoff Talent Skills Spreadsheet.xlsx
+++ b/Documents/Kickoff Talent Skills Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FasiTahir\6th Semester\SPM\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB18E076-E23F-420F-BEE0-8683245777D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDD6FEB-7DF8-4ED5-B94A-2DFF3AE9AB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t>Skill Needed</t>
   </si>
@@ -133,134 +122,137 @@
     <t>Alishba Mazhar</t>
   </si>
   <si>
-    <t>Developed Front end for multiple semester projects</t>
-  </si>
-  <si>
     <t>Eduvance</t>
-  </si>
-  <si>
-    <t>Designed Frontend in some of semester project</t>
-  </si>
-  <si>
-    <t>Worked on backend in all of my individual and group projects</t>
-  </si>
-  <si>
-    <t>Designed databases for many of my semester projects, also leaded the semester project in database course</t>
   </si>
   <si>
     <t>Wrote a research paper in ML, also created smart parenting app</t>
   </si>
   <si>
-    <t>Efficient in managing projects and meeting deadlines consistently.</t>
-  </si>
-  <si>
-    <t>Leaded many of my semester projects.</t>
-  </si>
-  <si>
-    <t>Worked on API in my semester project</t>
-  </si>
-  <si>
-    <t>Wrote requirement documents, project documentation, proposals for many of my semester projects</t>
-  </si>
-  <si>
-    <t>Developed Frontend in semester project</t>
-  </si>
-  <si>
-    <t>Experienced in handling backend development for nearly every project.</t>
-  </si>
-  <si>
-    <t>Set up and improved databases almost 3 different projects.</t>
-  </si>
-  <si>
-    <t>Implemented AI and ML concepts in semester projects.</t>
-  </si>
-  <si>
-    <t>Able to analyze information and make sensible choices.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not held formal leadership roles but adaptative </t>
-  </si>
-  <si>
-    <t>Strong expertise in documentation and consistently handled in every semester</t>
-  </si>
-  <si>
-    <t>Worked and handle in semester project</t>
-  </si>
-  <si>
-    <t>Experienced in finding bugs and testing for semester project</t>
   </si>
   <si>
     <t>Able to make important decisions for the team in semester projects.</t>
   </si>
   <si>
-    <t>Worked as an TA and helped others debugging the errors and also done testing for my semester project</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gained hands-on experience in backend development by building backend functionalities for multiple semester projects. </t>
-  </si>
-  <si>
-    <t>Designed and maintained database systems for five projects.</t>
-  </si>
-  <si>
-    <t>Developed two projects integrating AI and ML engineering.</t>
-  </si>
-  <si>
-    <t>Gained hands-on experience in efficiently managing two projects.</t>
-  </si>
-  <si>
-    <t>Moderate experience in decision-making, with the ability to analyze situations and make effective choices.</t>
-  </si>
-  <si>
-    <t>Demonstrated strong leadership skills by successfully leading 4 projects, ensuring collaboration and efficiency.</t>
-  </si>
-  <si>
-    <t>Moderate expertise in documentation, managing in 3 semesters.</t>
-  </si>
-  <si>
-    <t>Moderate expertise in API management, ensuring seamless integration and functionality.</t>
-  </si>
-  <si>
-    <t>Experienced in debugging and testing multiple projects efficiently, ensuring quality and performance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designed and developed front-end interfaces for multiple academic projects. </t>
-  </si>
-  <si>
-    <t>Built backend for 2 seImplemented backend functionalities for two semester-long projects.</t>
-  </si>
-  <si>
-    <t>Engineered and optimized databases for four projects.</t>
-  </si>
-  <si>
-    <t>Gained hands-on experience with AI-based solutions in a project.</t>
-  </si>
-  <si>
-    <t>Successfully led and managed four semester projects, ensuring timely delivery.</t>
   </si>
   <si>
     <t xml:space="preserve">Strong analytical skills with the ability to make rational and data-driven decisions. </t>
   </si>
   <si>
-    <t>Led teams for four academic projects, ensuring collaboration and efficiency.</t>
+    <t>Dr. Syed Khaldoon Khurshid</t>
   </si>
   <si>
-    <t xml:space="preserve">Integrated and managed APIs in a semester project. </t>
+    <t>Frontend for School management system in DB course</t>
   </si>
   <si>
-    <t>Extensive experience in debugging and testing multiple projects.</t>
+    <t>Experienced in AI Attendance Face recognition system project in AI course</t>
   </si>
   <si>
-    <t xml:space="preserve">Wrote project documentation for semester projects. </t>
+    <t>I had created a report in the DBMS project.</t>
   </si>
   <si>
-    <t>Dr. Syed Khaldoon Khurshid</t>
+    <t>Experienced in NEXTAY project in my software engineering course</t>
+  </si>
+  <si>
+    <t>Handle this in Nextay project</t>
+  </si>
+  <si>
+    <t>Designed frontend for Nextay website</t>
+  </si>
+  <si>
+    <t>Developed Front end for Nextay semester project and many more too.</t>
+  </si>
+  <si>
+    <t>Experienced in debugging and testing Employee management system with facial recognition project efficiently, ensuring quality and performance.</t>
+  </si>
+  <si>
+    <t>Gained hands-on experience in  Nextay project management efficiently and managing two projects more.</t>
+  </si>
+  <si>
+    <t>Lead many projects like secuirty system with IOT and also have strong leadership skills, ensuring collaboration and efficiency.</t>
+  </si>
+  <si>
+    <t>Moderate expertise in documentation, manage  School management system report in semester project.</t>
+  </si>
+  <si>
+    <t>Do decision-making in restaurant management system, with the ability to analyze situations and make effective choices.</t>
+  </si>
+  <si>
+    <t>Designed and maintained database in CLOS management system in semester project and also maintain database in other projects too.</t>
+  </si>
+  <si>
+    <t>Manage API  in Nextay Projectmanagement, ensuring seamless integration and functionality.</t>
+  </si>
+  <si>
+    <t>Develop AI and ML in employee management system with facial recognition system and also 1 project too.</t>
+  </si>
+  <si>
+    <t>Did in research paper and face recognition attendance system in AI course</t>
+  </si>
+  <si>
+    <t>Did a project named "nextay" in software engineering course</t>
+  </si>
+  <si>
+    <t>Designed Frontend in some of my semester projects like Nextay</t>
+  </si>
+  <si>
+    <t>Tested semester projects, particularly Machine Learning ones. Also worked as a TA, assisting with debugging.</t>
+  </si>
+  <si>
+    <t>Managed Nextay on the JIRA using the scrum board.</t>
+  </si>
+  <si>
+    <t>Led multiple semester projects, including Nextay and Smart Parenting Assistant.</t>
+  </si>
+  <si>
+    <t>Wrote requirement documents, project documentation, proposals for many of my semester projects like in smart parenting assistant I documented the project.</t>
+  </si>
+  <si>
+    <t>Designed databases for many of my semester projects, also leaded the project "Engineering Firm Management system" in database course.</t>
+  </si>
+  <si>
+    <t>Worked on backend in all of my individual and group projects. For example worked on scrapping, sorting and multiple DSA concepts in DSA's semester project</t>
+  </si>
+  <si>
+    <t>Worked on API in Nextay and Smartparenting assistant</t>
+  </si>
+  <si>
+    <t>Tested projects with Postman; twice a TA gaining strong debugging skills.</t>
+  </si>
+  <si>
+    <t>Did this in a school management system in my DB course</t>
+  </si>
+  <si>
+    <t>Did this in school management system of my DB course</t>
+  </si>
+  <si>
+    <t>Successfully led and managed "inSight" project</t>
+  </si>
+  <si>
+    <t>Led teams for four academic projects, including TFG and inSight.</t>
+  </si>
+  <si>
+    <t>Wrote project documentations my for semester projects like inSight, TFG, Nextay</t>
+  </si>
+  <si>
+    <t>Engineered and optimized databases for four projects including CLO management system and Resturant Management system</t>
+  </si>
+  <si>
+    <t>Implemented backend functionalities for inSight and Nextay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated and managed APIs in a Nextay. </t>
+  </si>
+  <si>
+    <t>Gained hands-on experience with AI-based solutions in inSight.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,6 +293,21 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -484,13 +491,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" applyFill="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -545,14 +553,17 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="1" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -566,18 +577,569 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1" xr:uid="{6F8CFC14-36DF-4CCC-B353-9B0DDB418554}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -631,19 +1193,14 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>405342</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1045559</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>36879</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="2143125" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Imagen 2">
@@ -658,21 +1215,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="405342" y="160867"/>
-          <a:ext cx="2159455" cy="792000"/>
+          <a:off x="400050" y="152400"/>
+          <a:ext cx="2143125" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -680,14 +1232,14 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -725,7 +1277,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -831,7 +1383,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -973,7 +1525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -983,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1021,19 +1573,19 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:51" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="10" t="s">
         <v>9</v>
@@ -1043,18 +1595,18 @@
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>32</v>
+      <c r="F3" s="30" t="s">
+        <v>31</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:51" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1062,18 +1614,18 @@
       <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>71</v>
+      <c r="F4" s="31" t="s">
+        <v>37</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1126,7 +1678,7 @@
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
     </row>
-    <row r="6" spans="1:51" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="23" t="s">
         <v>3</v>
@@ -1191,7 +1743,7 @@
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
     </row>
-    <row r="7" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>1</v>
@@ -1200,16 +1752,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>61</v>
+      <c r="G7" s="35" t="s">
+        <v>43</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="25">
         <v>2</v>
       </c>
       <c r="I7" s="19">
@@ -1258,7 +1810,7 @@
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
     </row>
-    <row r="8" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="3">
         <v>2</v>
@@ -1267,16 +1819,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>41</v>
+      <c r="G8" s="26" t="s">
+        <v>38</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="24">
         <v>2</v>
       </c>
       <c r="I8" s="19">
@@ -1325,7 +1877,7 @@
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
     </row>
-    <row r="9" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="4">
         <v>3</v>
@@ -1334,16 +1886,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="32" t="s">
-        <v>33</v>
+      <c r="G9" s="35" t="s">
+        <v>55</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="25">
         <v>1</v>
       </c>
       <c r="I9" s="19">
@@ -1392,7 +1944,7 @@
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
     </row>
-    <row r="10" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="5">
         <v>4</v>
@@ -1401,16 +1953,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>31</v>
+      <c r="G10" s="37" t="s">
+        <v>44</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="24">
         <v>2</v>
       </c>
       <c r="I10" s="19">
@@ -1459,21 +2011,21 @@
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
     </row>
-    <row r="11" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>51</v>
+      <c r="G11" s="35" t="s">
+        <v>56</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="25">
         <v>1</v>
       </c>
       <c r="I11" s="19">
@@ -1522,21 +2074,21 @@
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
     </row>
-    <row r="12" spans="1:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="31" t="s">
-        <v>49</v>
+      <c r="G12" s="26" t="s">
+        <v>39</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="24">
         <v>2</v>
       </c>
       <c r="I12" s="19">
@@ -1585,23 +2137,23 @@
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
     </row>
-    <row r="13" spans="1:51" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>60</v>
+      <c r="G13" s="35" t="s">
+        <v>45</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="25">
         <v>2.5</v>
       </c>
       <c r="I13" s="19">
@@ -1650,21 +2202,21 @@
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
     </row>
-    <row r="14" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>69</v>
+      <c r="G14" s="37" t="s">
+        <v>63</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="24">
         <v>2.5</v>
       </c>
       <c r="I14" s="19">
@@ -1713,21 +2265,21 @@
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
     </row>
-    <row r="15" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="32" t="s">
-        <v>55</v>
+      <c r="G15" s="35" t="s">
+        <v>46</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="25">
         <v>1</v>
       </c>
       <c r="I15" s="19">
@@ -1776,23 +2328,23 @@
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
     </row>
-    <row r="16" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="31" t="s">
-        <v>37</v>
+      <c r="G16" s="37" t="s">
+        <v>57</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="24">
         <v>2.5</v>
       </c>
       <c r="I16" s="19">
@@ -1843,21 +2395,21 @@
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
     </row>
-    <row r="17" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>37</v>
+      <c r="G17" s="27" t="s">
+        <v>54</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="25">
         <v>1.5</v>
       </c>
       <c r="I17" s="19">
@@ -1906,21 +2458,21 @@
       <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
     </row>
-    <row r="18" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="31" t="s">
-        <v>65</v>
+      <c r="G18" s="37" t="s">
+        <v>66</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="24">
         <v>2</v>
       </c>
       <c r="I18" s="19">
@@ -1969,21 +2521,21 @@
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
     </row>
-    <row r="19" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="32" t="s">
-        <v>38</v>
+      <c r="G19" s="39" t="s">
+        <v>58</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="25">
         <v>2</v>
       </c>
       <c r="I19" s="19">
@@ -2032,21 +2584,21 @@
       <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
     </row>
-    <row r="20" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="31" t="s">
-        <v>57</v>
+      <c r="G20" s="37" t="s">
+        <v>47</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="24">
         <v>2</v>
       </c>
       <c r="I20" s="19">
@@ -2095,21 +2647,21 @@
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
     </row>
-    <row r="21" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="25">
         <v>1.5</v>
       </c>
       <c r="I21" s="19">
@@ -2158,21 +2710,21 @@
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
     </row>
-    <row r="22" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="31" t="s">
-        <v>46</v>
+      <c r="G22" s="38" t="s">
+        <v>33</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="24">
         <v>0</v>
       </c>
       <c r="I22" s="19">
@@ -2221,21 +2773,21 @@
       <c r="AX22" s="1"/>
       <c r="AY22" s="1"/>
     </row>
-    <row r="23" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="32" t="s">
-        <v>40</v>
+      <c r="G23" s="35" t="s">
+        <v>59</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="25">
         <v>2.5</v>
       </c>
       <c r="I23" s="19">
@@ -2284,21 +2836,21 @@
       <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
     </row>
-    <row r="24" spans="1:51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="31" t="s">
-        <v>47</v>
+      <c r="G24" s="26" t="s">
+        <v>40</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="24">
         <v>2</v>
       </c>
       <c r="I24" s="19">
@@ -2351,16 +2903,16 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="32" t="s">
-        <v>58</v>
+      <c r="G25" s="35" t="s">
+        <v>48</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="25">
         <v>1.5</v>
       </c>
       <c r="I25" s="19">
@@ -2411,16 +2963,16 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="31" t="s">
-        <v>70</v>
+      <c r="G26" s="37" t="s">
+        <v>68</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="24">
         <v>2</v>
       </c>
       <c r="I26" s="19">
@@ -2471,16 +3023,16 @@
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="32" t="s">
-        <v>66</v>
+      <c r="G27" s="36" t="s">
+        <v>36</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="25">
         <v>3</v>
       </c>
       <c r="I27" s="19">
@@ -2531,16 +3083,16 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="31" t="s">
-        <v>50</v>
+      <c r="G28" s="38" t="s">
+        <v>34</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="24">
         <v>2</v>
       </c>
       <c r="I28" s="19">
@@ -2593,16 +3145,16 @@
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="32" t="s">
-        <v>56</v>
+      <c r="G29" s="35" t="s">
+        <v>49</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="25">
         <v>2.5</v>
       </c>
       <c r="I29" s="19">
@@ -2653,16 +3205,16 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="31" t="s">
-        <v>45</v>
+      <c r="G30" s="26" t="s">
+        <v>64</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="24">
         <v>0.5</v>
       </c>
       <c r="I30" s="19">
@@ -2713,16 +3265,16 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="32" t="s">
-        <v>35</v>
+      <c r="G31" s="35" t="s">
+        <v>60</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="25">
         <v>1</v>
       </c>
       <c r="I31" s="19">
@@ -2773,16 +3325,16 @@
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>53</v>
+      <c r="G32" s="37" t="s">
+        <v>50</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="24">
         <v>2</v>
       </c>
       <c r="I32" s="19">
@@ -2828,20 +3380,20 @@
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="32" t="s">
-        <v>63</v>
+      <c r="G33" s="35" t="s">
+        <v>69</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="25">
         <v>1.5</v>
       </c>
       <c r="I33" s="19">
@@ -2886,20 +3438,20 @@
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="31" t="s">
-        <v>43</v>
+      <c r="G34" s="26" t="s">
+        <v>65</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="24">
         <v>1</v>
       </c>
       <c r="I34" s="19">
@@ -2944,20 +3496,20 @@
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="32" t="s">
-        <v>34</v>
+      <c r="G35" s="35" t="s">
+        <v>61</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="25">
         <v>2.5</v>
       </c>
       <c r="I35" s="19">
@@ -3002,20 +3554,20 @@
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="31" t="s">
-        <v>52</v>
+      <c r="G36" s="37" t="s">
+        <v>35</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="24">
         <v>2.5</v>
       </c>
       <c r="I36" s="19">
@@ -3060,20 +3612,20 @@
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="32" t="s">
-        <v>42</v>
+      <c r="G37" s="27" t="s">
+        <v>41</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="25">
         <v>2</v>
       </c>
       <c r="I37" s="19">
@@ -3118,20 +3670,20 @@
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="31" t="s">
-        <v>62</v>
+      <c r="G38" s="37" t="s">
+        <v>70</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="24">
         <v>0.5</v>
       </c>
       <c r="I38" s="19">
@@ -3176,20 +3728,20 @@
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="32" t="s">
-        <v>39</v>
+      <c r="G39" s="35" t="s">
+        <v>62</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="25">
         <v>0.5</v>
       </c>
       <c r="I39" s="19">
@@ -3234,20 +3786,20 @@
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="31" t="s">
-        <v>48</v>
+      <c r="G40" s="26" t="s">
+        <v>42</v>
       </c>
-      <c r="H40" s="31">
+      <c r="H40" s="24">
         <v>0.5</v>
       </c>
       <c r="I40" s="19">
@@ -3292,20 +3844,20 @@
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="32" t="s">
-        <v>59</v>
+      <c r="G41" s="35" t="s">
+        <v>51</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="25">
         <v>2.5</v>
       </c>
       <c r="I41" s="19">
@@ -3350,20 +3902,20 @@
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="31" t="s">
-        <v>68</v>
+      <c r="G42" s="37" t="s">
+        <v>71</v>
       </c>
-      <c r="H42" s="31">
+      <c r="H42" s="24">
         <v>0.5</v>
       </c>
       <c r="I42" s="19">
@@ -3408,20 +3960,20 @@
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="32" t="s">
-        <v>36</v>
+      <c r="G43" s="35" t="s">
+        <v>32</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="25">
         <v>0.5</v>
       </c>
       <c r="I43" s="19">
@@ -3466,20 +4018,20 @@
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="31" t="s">
-        <v>44</v>
+      <c r="G44" s="26" t="s">
+        <v>53</v>
       </c>
-      <c r="H44" s="31">
+      <c r="H44" s="24">
         <v>0.5</v>
       </c>
       <c r="I44" s="19">
@@ -3524,20 +4076,20 @@
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="32" t="s">
-        <v>54</v>
+      <c r="G45" s="35" t="s">
+        <v>52</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="25">
         <v>0.5</v>
       </c>
       <c r="I45" s="19">
@@ -3582,20 +4134,20 @@
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="31" t="s">
-        <v>64</v>
+      <c r="G46" s="37" t="s">
+        <v>72</v>
       </c>
-      <c r="H46" s="31">
+      <c r="H46" s="24">
         <v>0.5</v>
       </c>
       <c r="I46" s="19">
@@ -3640,7 +4192,7 @@
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3688,8 +4240,7 @@
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A48"/>
+    <row r="48" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3737,8 +4288,7 @@
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A49"/>
+    <row r="49" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3786,8 +4336,7 @@
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A50"/>
+    <row r="50" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3835,8 +4384,7 @@
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A51"/>
+    <row r="51" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3884,8 +4432,7 @@
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A52"/>
+    <row r="52" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3933,8 +4480,7 @@
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A53"/>
+    <row r="53" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3982,8 +4528,7 @@
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A54"/>
+    <row r="54" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -4031,8 +4576,7 @@
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A55"/>
+    <row r="55" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -4080,8 +4624,7 @@
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A56"/>
+    <row r="56" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -4127,8 +4670,7 @@
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A57"/>
+    <row r="57" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -4174,8 +4716,7 @@
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A58"/>
+    <row r="58" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -4221,8 +4762,7 @@
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A59"/>
+    <row r="59" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -4271,8 +4811,7 @@
       <c r="AX59" s="1"/>
       <c r="AY59" s="1"/>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A60"/>
+    <row r="60" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -4321,8 +4860,7 @@
       <c r="AX60" s="1"/>
       <c r="AY60" s="1"/>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A61"/>
+    <row r="61" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -4371,8 +4909,7 @@
       <c r="AX61" s="1"/>
       <c r="AY61" s="1"/>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A62"/>
+    <row r="62" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -4423,8 +4960,7 @@
       <c r="AX62" s="1"/>
       <c r="AY62" s="1"/>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A63"/>
+    <row r="63" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -4473,8 +5009,7 @@
       <c r="AX63" s="1"/>
       <c r="AY63" s="1"/>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A64"/>
+    <row r="64" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -4523,8 +5058,7 @@
       <c r="AX64" s="1"/>
       <c r="AY64" s="1"/>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A65"/>
+    <row r="65" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -4573,8 +5107,7 @@
       <c r="AX65" s="1"/>
       <c r="AY65" s="1"/>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A66"/>
+    <row r="66" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -4623,8 +5156,7 @@
       <c r="AX66" s="1"/>
       <c r="AY66" s="1"/>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A67"/>
+    <row r="67" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -4673,8 +5205,7 @@
       <c r="AX67" s="1"/>
       <c r="AY67" s="1"/>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A68"/>
+    <row r="68" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -4723,8 +5254,7 @@
       <c r="AX68" s="1"/>
       <c r="AY68" s="1"/>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A69"/>
+    <row r="69" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -4773,8 +5303,7 @@
       <c r="AX69" s="1"/>
       <c r="AY69" s="1"/>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A70"/>
+    <row r="70" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -4823,8 +5352,7 @@
       <c r="AX70" s="1"/>
       <c r="AY70" s="1"/>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A71"/>
+    <row r="71" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -4873,8 +5401,7 @@
       <c r="AX71" s="1"/>
       <c r="AY71" s="1"/>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A72"/>
+    <row r="72" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -4923,8 +5450,7 @@
       <c r="AX72" s="1"/>
       <c r="AY72" s="1"/>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A73"/>
+    <row r="73" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -4973,8 +5499,7 @@
       <c r="AX73" s="1"/>
       <c r="AY73" s="1"/>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A74"/>
+    <row r="74" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -5023,8 +5548,7 @@
       <c r="AX74" s="1"/>
       <c r="AY74" s="1"/>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A75"/>
+    <row r="75" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -5073,8 +5597,7 @@
       <c r="AX75" s="1"/>
       <c r="AY75" s="1"/>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A76"/>
+    <row r="76" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -5123,8 +5646,7 @@
       <c r="AX76" s="1"/>
       <c r="AY76" s="1"/>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A77"/>
+    <row r="77" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -5173,8 +5695,7 @@
       <c r="AX77" s="1"/>
       <c r="AY77" s="1"/>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A78"/>
+    <row r="78" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -5223,8 +5744,7 @@
       <c r="AX78" s="1"/>
       <c r="AY78" s="1"/>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A79"/>
+    <row r="79" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -5273,8 +5793,7 @@
       <c r="AX79" s="1"/>
       <c r="AY79" s="1"/>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A80"/>
+    <row r="80" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -5323,8 +5842,7 @@
       <c r="AX80" s="1"/>
       <c r="AY80" s="1"/>
     </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A81"/>
+    <row r="81" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -5373,8 +5891,7 @@
       <c r="AX81" s="1"/>
       <c r="AY81" s="1"/>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A82"/>
+    <row r="82" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -5423,8 +5940,7 @@
       <c r="AX82" s="1"/>
       <c r="AY82" s="1"/>
     </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A83"/>
+    <row r="83" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -5473,8 +5989,7 @@
       <c r="AX83" s="1"/>
       <c r="AY83" s="1"/>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A84"/>
+    <row r="84" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -5523,8 +6038,7 @@
       <c r="AX84" s="1"/>
       <c r="AY84" s="1"/>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A85"/>
+    <row r="85" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -5573,8 +6087,7 @@
       <c r="AX85" s="1"/>
       <c r="AY85" s="1"/>
     </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A86"/>
+    <row r="86" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -5623,8 +6136,7 @@
       <c r="AX86" s="1"/>
       <c r="AY86" s="1"/>
     </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A87"/>
+    <row r="87" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -5673,8 +6185,7 @@
       <c r="AX87" s="1"/>
       <c r="AY87" s="1"/>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A88"/>
+    <row r="88" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -5723,8 +6234,7 @@
       <c r="AX88" s="1"/>
       <c r="AY88" s="1"/>
     </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A89"/>
+    <row r="89" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -5773,8 +6283,7 @@
       <c r="AX89" s="1"/>
       <c r="AY89" s="1"/>
     </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A90"/>
+    <row r="90" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -5823,8 +6332,7 @@
       <c r="AX90" s="1"/>
       <c r="AY90" s="1"/>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A91"/>
+    <row r="91" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -5873,8 +6381,7 @@
       <c r="AX91" s="1"/>
       <c r="AY91" s="1"/>
     </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A92"/>
+    <row r="92" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -5923,8 +6430,7 @@
       <c r="AX92" s="1"/>
       <c r="AY92" s="1"/>
     </row>
-    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A93"/>
+    <row r="93" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -5973,8 +6479,7 @@
       <c r="AX93" s="1"/>
       <c r="AY93" s="1"/>
     </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A94"/>
+    <row r="94" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -6023,8 +6528,7 @@
       <c r="AX94" s="1"/>
       <c r="AY94" s="1"/>
     </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A95"/>
+    <row r="95" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -6073,8 +6577,7 @@
       <c r="AX95" s="1"/>
       <c r="AY95" s="1"/>
     </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A96"/>
+    <row r="96" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -6123,8 +6626,7 @@
       <c r="AX96" s="1"/>
       <c r="AY96" s="1"/>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A97"/>
+    <row r="97" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -6173,8 +6675,7 @@
       <c r="AX97" s="1"/>
       <c r="AY97" s="1"/>
     </row>
-    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A98"/>
+    <row r="98" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -6223,8 +6724,7 @@
       <c r="AX98" s="1"/>
       <c r="AY98" s="1"/>
     </row>
-    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A99"/>
+    <row r="99" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -6273,8 +6773,7 @@
       <c r="AX99" s="1"/>
       <c r="AY99" s="1"/>
     </row>
-    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A100"/>
+    <row r="100" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -6323,8 +6822,7 @@
       <c r="AX100" s="1"/>
       <c r="AY100" s="1"/>
     </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A101"/>
+    <row r="101" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -6373,8 +6871,7 @@
       <c r="AX101" s="1"/>
       <c r="AY101" s="1"/>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A102"/>
+    <row r="102" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -6423,8 +6920,7 @@
       <c r="AX102" s="1"/>
       <c r="AY102" s="1"/>
     </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A103"/>
+    <row r="103" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -6473,8 +6969,7 @@
       <c r="AX103" s="1"/>
       <c r="AY103" s="1"/>
     </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A104"/>
+    <row r="104" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -6523,8 +7018,7 @@
       <c r="AX104" s="1"/>
       <c r="AY104" s="1"/>
     </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A105"/>
+    <row r="105" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -6573,8 +7067,7 @@
       <c r="AX105" s="1"/>
       <c r="AY105" s="1"/>
     </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A106"/>
+    <row r="106" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -6623,8 +7116,7 @@
       <c r="AX106" s="1"/>
       <c r="AY106" s="1"/>
     </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A107"/>
+    <row r="107" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -6673,8 +7165,7 @@
       <c r="AX107" s="1"/>
       <c r="AY107" s="1"/>
     </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A108"/>
+    <row r="108" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -6723,8 +7214,7 @@
       <c r="AX108" s="1"/>
       <c r="AY108" s="1"/>
     </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A109"/>
+    <row r="109" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -6773,8 +7263,7 @@
       <c r="AX109" s="1"/>
       <c r="AY109" s="1"/>
     </row>
-    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A110"/>
+    <row r="110" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -6823,8 +7312,7 @@
       <c r="AX110" s="1"/>
       <c r="AY110" s="1"/>
     </row>
-    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A111"/>
+    <row r="111" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -6873,8 +7361,7 @@
       <c r="AX111" s="1"/>
       <c r="AY111" s="1"/>
     </row>
-    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A112"/>
+    <row r="112" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -6923,8 +7410,7 @@
       <c r="AX112" s="1"/>
       <c r="AY112" s="1"/>
     </row>
-    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A113"/>
+    <row r="113" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -6973,8 +7459,7 @@
       <c r="AX113" s="1"/>
       <c r="AY113" s="1"/>
     </row>
-    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A114"/>
+    <row r="114" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -7023,8 +7508,7 @@
       <c r="AX114" s="1"/>
       <c r="AY114" s="1"/>
     </row>
-    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A115"/>
+    <row r="115" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -7073,8 +7557,7 @@
       <c r="AX115" s="1"/>
       <c r="AY115" s="1"/>
     </row>
-    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A116"/>
+    <row r="116" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -7123,8 +7606,7 @@
       <c r="AX116" s="1"/>
       <c r="AY116" s="1"/>
     </row>
-    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A117"/>
+    <row r="117" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -7173,8 +7655,7 @@
       <c r="AX117" s="1"/>
       <c r="AY117" s="1"/>
     </row>
-    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A118"/>
+    <row r="118" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -7223,8 +7704,7 @@
       <c r="AX118" s="1"/>
       <c r="AY118" s="1"/>
     </row>
-    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A119"/>
+    <row r="119" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -7273,8 +7753,7 @@
       <c r="AX119" s="1"/>
       <c r="AY119" s="1"/>
     </row>
-    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A120"/>
+    <row r="120" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -7323,8 +7802,7 @@
       <c r="AX120" s="1"/>
       <c r="AY120" s="1"/>
     </row>
-    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A121"/>
+    <row r="121" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -7373,8 +7851,7 @@
       <c r="AX121" s="1"/>
       <c r="AY121" s="1"/>
     </row>
-    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A122"/>
+    <row r="122" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -7423,8 +7900,7 @@
       <c r="AX122" s="1"/>
       <c r="AY122" s="1"/>
     </row>
-    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A123"/>
+    <row r="123" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -7473,8 +7949,7 @@
       <c r="AX123" s="1"/>
       <c r="AY123" s="1"/>
     </row>
-    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A124"/>
+    <row r="124" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -7523,8 +7998,7 @@
       <c r="AX124" s="1"/>
       <c r="AY124" s="1"/>
     </row>
-    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A125"/>
+    <row r="125" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -7573,8 +8047,7 @@
       <c r="AX125" s="1"/>
       <c r="AY125" s="1"/>
     </row>
-    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A126"/>
+    <row r="126" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -7623,8 +8096,7 @@
       <c r="AX126" s="1"/>
       <c r="AY126" s="1"/>
     </row>
-    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A127"/>
+    <row r="127" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -7673,8 +8145,7 @@
       <c r="AX127" s="1"/>
       <c r="AY127" s="1"/>
     </row>
-    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A128"/>
+    <row r="128" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -7723,8 +8194,7 @@
       <c r="AX128" s="1"/>
       <c r="AY128" s="1"/>
     </row>
-    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A129"/>
+    <row r="129" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -7773,8 +8243,7 @@
       <c r="AX129" s="1"/>
       <c r="AY129" s="1"/>
     </row>
-    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A130"/>
+    <row r="130" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -7823,8 +8292,7 @@
       <c r="AX130" s="1"/>
       <c r="AY130" s="1"/>
     </row>
-    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A131"/>
+    <row r="131" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -7873,8 +8341,7 @@
       <c r="AX131" s="1"/>
       <c r="AY131" s="1"/>
     </row>
-    <row r="132" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A132"/>
+    <row r="132" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -7923,8 +8390,7 @@
       <c r="AX132" s="1"/>
       <c r="AY132" s="1"/>
     </row>
-    <row r="133" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A133"/>
+    <row r="133" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -7973,8 +8439,7 @@
       <c r="AX133" s="1"/>
       <c r="AY133" s="1"/>
     </row>
-    <row r="134" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A134"/>
+    <row r="134" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -8023,8 +8488,7 @@
       <c r="AX134" s="1"/>
       <c r="AY134" s="1"/>
     </row>
-    <row r="135" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A135"/>
+    <row r="135" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -8073,8 +8537,7 @@
       <c r="AX135" s="1"/>
       <c r="AY135" s="1"/>
     </row>
-    <row r="136" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A136"/>
+    <row r="136" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -8123,8 +8586,7 @@
       <c r="AX136" s="1"/>
       <c r="AY136" s="1"/>
     </row>
-    <row r="137" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A137"/>
+    <row r="137" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -8173,8 +8635,7 @@
       <c r="AX137" s="1"/>
       <c r="AY137" s="1"/>
     </row>
-    <row r="138" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A138"/>
+    <row r="138" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -8223,8 +8684,7 @@
       <c r="AX138" s="1"/>
       <c r="AY138" s="1"/>
     </row>
-    <row r="139" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A139"/>
+    <row r="139" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -8273,8 +8733,7 @@
       <c r="AX139" s="1"/>
       <c r="AY139" s="1"/>
     </row>
-    <row r="140" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A140"/>
+    <row r="140" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -8323,8 +8782,7 @@
       <c r="AX140" s="1"/>
       <c r="AY140" s="1"/>
     </row>
-    <row r="141" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A141"/>
+    <row r="141" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -8373,8 +8831,7 @@
       <c r="AX141" s="1"/>
       <c r="AY141" s="1"/>
     </row>
-    <row r="142" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A142"/>
+    <row r="142" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -8423,8 +8880,7 @@
       <c r="AX142" s="1"/>
       <c r="AY142" s="1"/>
     </row>
-    <row r="143" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A143"/>
+    <row r="143" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -8473,8 +8929,7 @@
       <c r="AX143" s="1"/>
       <c r="AY143" s="1"/>
     </row>
-    <row r="144" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A144"/>
+    <row r="144" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -8523,8 +8978,7 @@
       <c r="AX144" s="1"/>
       <c r="AY144" s="1"/>
     </row>
-    <row r="145" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A145"/>
+    <row r="145" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -8573,8 +9027,7 @@
       <c r="AX145" s="1"/>
       <c r="AY145" s="1"/>
     </row>
-    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A146"/>
+    <row r="146" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -8623,8 +9076,7 @@
       <c r="AX146" s="1"/>
       <c r="AY146" s="1"/>
     </row>
-    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A147"/>
+    <row r="147" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -8673,8 +9125,7 @@
       <c r="AX147" s="1"/>
       <c r="AY147" s="1"/>
     </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A148"/>
+    <row r="148" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -8723,8 +9174,7 @@
       <c r="AX148" s="1"/>
       <c r="AY148" s="1"/>
     </row>
-    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A149"/>
+    <row r="149" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -8773,8 +9223,7 @@
       <c r="AX149" s="1"/>
       <c r="AY149" s="1"/>
     </row>
-    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A150"/>
+    <row r="150" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -8823,8 +9272,7 @@
       <c r="AX150" s="1"/>
       <c r="AY150" s="1"/>
     </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A151"/>
+    <row r="151" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -8873,8 +9321,7 @@
       <c r="AX151" s="1"/>
       <c r="AY151" s="1"/>
     </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A152"/>
+    <row r="152" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -8923,8 +9370,7 @@
       <c r="AX152" s="1"/>
       <c r="AY152" s="1"/>
     </row>
-    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A153"/>
+    <row r="153" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -8973,8 +9419,7 @@
       <c r="AX153" s="1"/>
       <c r="AY153" s="1"/>
     </row>
-    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A154"/>
+    <row r="154" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -9023,8 +9468,7 @@
       <c r="AX154" s="1"/>
       <c r="AY154" s="1"/>
     </row>
-    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A155"/>
+    <row r="155" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -9073,8 +9517,7 @@
       <c r="AX155" s="1"/>
       <c r="AY155" s="1"/>
     </row>
-    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A156"/>
+    <row r="156" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -9123,8 +9566,7 @@
       <c r="AX156" s="1"/>
       <c r="AY156" s="1"/>
     </row>
-    <row r="157" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A157"/>
+    <row r="157" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -9173,8 +9615,7 @@
       <c r="AX157" s="1"/>
       <c r="AY157" s="1"/>
     </row>
-    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A158"/>
+    <row r="158" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -9223,8 +9664,7 @@
       <c r="AX158" s="1"/>
       <c r="AY158" s="1"/>
     </row>
-    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A159"/>
+    <row r="159" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -9273,8 +9713,7 @@
       <c r="AX159" s="1"/>
       <c r="AY159" s="1"/>
     </row>
-    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A160"/>
+    <row r="160" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -9323,8 +9762,7 @@
       <c r="AX160" s="1"/>
       <c r="AY160" s="1"/>
     </row>
-    <row r="161" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A161"/>
+    <row r="161" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -9373,8 +9811,7 @@
       <c r="AX161" s="1"/>
       <c r="AY161" s="1"/>
     </row>
-    <row r="162" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A162"/>
+    <row r="162" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -9423,8 +9860,7 @@
       <c r="AX162" s="1"/>
       <c r="AY162" s="1"/>
     </row>
-    <row r="163" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A163"/>
+    <row r="163" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -9473,8 +9909,7 @@
       <c r="AX163" s="1"/>
       <c r="AY163" s="1"/>
     </row>
-    <row r="164" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A164"/>
+    <row r="164" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -9523,8 +9958,7 @@
       <c r="AX164" s="1"/>
       <c r="AY164" s="1"/>
     </row>
-    <row r="165" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A165"/>
+    <row r="165" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -9573,8 +10007,7 @@
       <c r="AX165" s="1"/>
       <c r="AY165" s="1"/>
     </row>
-    <row r="166" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A166"/>
+    <row r="166" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -9623,8 +10056,7 @@
       <c r="AX166" s="1"/>
       <c r="AY166" s="1"/>
     </row>
-    <row r="167" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A167"/>
+    <row r="167" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -9673,8 +10105,7 @@
       <c r="AX167" s="1"/>
       <c r="AY167" s="1"/>
     </row>
-    <row r="168" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A168"/>
+    <row r="168" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -9723,8 +10154,7 @@
       <c r="AX168" s="1"/>
       <c r="AY168" s="1"/>
     </row>
-    <row r="169" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A169"/>
+    <row r="169" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -9773,8 +10203,7 @@
       <c r="AX169" s="1"/>
       <c r="AY169" s="1"/>
     </row>
-    <row r="170" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A170"/>
+    <row r="170" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -9823,8 +10252,7 @@
       <c r="AX170" s="1"/>
       <c r="AY170" s="1"/>
     </row>
-    <row r="171" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A171"/>
+    <row r="171" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -9873,8 +10301,7 @@
       <c r="AX171" s="1"/>
       <c r="AY171" s="1"/>
     </row>
-    <row r="172" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A172"/>
+    <row r="172" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -9923,8 +10350,7 @@
       <c r="AX172" s="1"/>
       <c r="AY172" s="1"/>
     </row>
-    <row r="173" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A173"/>
+    <row r="173" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -9973,8 +10399,7 @@
       <c r="AX173" s="1"/>
       <c r="AY173" s="1"/>
     </row>
-    <row r="174" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A174"/>
+    <row r="174" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -10023,8 +10448,7 @@
       <c r="AX174" s="1"/>
       <c r="AY174" s="1"/>
     </row>
-    <row r="175" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A175"/>
+    <row r="175" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -10073,8 +10497,7 @@
       <c r="AX175" s="1"/>
       <c r="AY175" s="1"/>
     </row>
-    <row r="176" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A176"/>
+    <row r="176" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -10123,8 +10546,7 @@
       <c r="AX176" s="1"/>
       <c r="AY176" s="1"/>
     </row>
-    <row r="177" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A177"/>
+    <row r="177" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -10173,8 +10595,7 @@
       <c r="AX177" s="1"/>
       <c r="AY177" s="1"/>
     </row>
-    <row r="178" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A178"/>
+    <row r="178" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -10223,8 +10644,7 @@
       <c r="AX178" s="1"/>
       <c r="AY178" s="1"/>
     </row>
-    <row r="179" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A179"/>
+    <row r="179" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -10273,8 +10693,7 @@
       <c r="AX179" s="1"/>
       <c r="AY179" s="1"/>
     </row>
-    <row r="180" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A180"/>
+    <row r="180" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -10323,8 +10742,7 @@
       <c r="AX180" s="1"/>
       <c r="AY180" s="1"/>
     </row>
-    <row r="181" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A181"/>
+    <row r="181" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -10373,8 +10791,7 @@
       <c r="AX181" s="1"/>
       <c r="AY181" s="1"/>
     </row>
-    <row r="182" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A182"/>
+    <row r="182" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -10423,8 +10840,7 @@
       <c r="AX182" s="1"/>
       <c r="AY182" s="1"/>
     </row>
-    <row r="183" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A183"/>
+    <row r="183" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -10473,8 +10889,7 @@
       <c r="AX183" s="1"/>
       <c r="AY183" s="1"/>
     </row>
-    <row r="184" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A184"/>
+    <row r="184" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -10523,8 +10938,7 @@
       <c r="AX184" s="1"/>
       <c r="AY184" s="1"/>
     </row>
-    <row r="185" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A185"/>
+    <row r="185" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -10573,8 +10987,7 @@
       <c r="AX185" s="1"/>
       <c r="AY185" s="1"/>
     </row>
-    <row r="186" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A186"/>
+    <row r="186" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -10623,8 +11036,7 @@
       <c r="AX186" s="1"/>
       <c r="AY186" s="1"/>
     </row>
-    <row r="187" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A187"/>
+    <row r="187" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -10673,8 +11085,7 @@
       <c r="AX187" s="1"/>
       <c r="AY187" s="1"/>
     </row>
-    <row r="188" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A188"/>
+    <row r="188" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -10723,8 +11134,7 @@
       <c r="AX188" s="1"/>
       <c r="AY188" s="1"/>
     </row>
-    <row r="189" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A189"/>
+    <row r="189" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -10773,8 +11183,7 @@
       <c r="AX189" s="1"/>
       <c r="AY189" s="1"/>
     </row>
-    <row r="190" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A190"/>
+    <row r="190" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -10823,8 +11232,7 @@
       <c r="AX190" s="1"/>
       <c r="AY190" s="1"/>
     </row>
-    <row r="191" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A191"/>
+    <row r="191" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -10873,8 +11281,7 @@
       <c r="AX191" s="1"/>
       <c r="AY191" s="1"/>
     </row>
-    <row r="192" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A192"/>
+    <row r="192" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -10923,8 +11330,7 @@
       <c r="AX192" s="1"/>
       <c r="AY192" s="1"/>
     </row>
-    <row r="193" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A193"/>
+    <row r="193" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -10973,8 +11379,7 @@
       <c r="AX193" s="1"/>
       <c r="AY193" s="1"/>
     </row>
-    <row r="194" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A194"/>
+    <row r="194" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -11023,8 +11428,7 @@
       <c r="AX194" s="1"/>
       <c r="AY194" s="1"/>
     </row>
-    <row r="195" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A195"/>
+    <row r="195" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -11073,8 +11477,7 @@
       <c r="AX195" s="1"/>
       <c r="AY195" s="1"/>
     </row>
-    <row r="196" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A196"/>
+    <row r="196" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -11123,8 +11526,7 @@
       <c r="AX196" s="1"/>
       <c r="AY196" s="1"/>
     </row>
-    <row r="197" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A197"/>
+    <row r="197" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -11173,8 +11575,7 @@
       <c r="AX197" s="1"/>
       <c r="AY197" s="1"/>
     </row>
-    <row r="198" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A198"/>
+    <row r="198" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -11223,8 +11624,7 @@
       <c r="AX198" s="1"/>
       <c r="AY198" s="1"/>
     </row>
-    <row r="199" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A199"/>
+    <row r="199" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -11273,8 +11673,7 @@
       <c r="AX199" s="1"/>
       <c r="AY199" s="1"/>
     </row>
-    <row r="200" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A200"/>
+    <row r="200" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -11323,8 +11722,7 @@
       <c r="AX200" s="1"/>
       <c r="AY200" s="1"/>
     </row>
-    <row r="201" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A201"/>
+    <row r="201" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -11373,8 +11771,7 @@
       <c r="AX201" s="1"/>
       <c r="AY201" s="1"/>
     </row>
-    <row r="202" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A202"/>
+    <row r="202" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -11423,8 +11820,7 @@
       <c r="AX202" s="1"/>
       <c r="AY202" s="1"/>
     </row>
-    <row r="203" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A203"/>
+    <row r="203" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -11473,8 +11869,7 @@
       <c r="AX203" s="1"/>
       <c r="AY203" s="1"/>
     </row>
-    <row r="204" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A204"/>
+    <row r="204" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -11523,8 +11918,7 @@
       <c r="AX204" s="1"/>
       <c r="AY204" s="1"/>
     </row>
-    <row r="205" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A205"/>
+    <row r="205" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -11573,8 +11967,7 @@
       <c r="AX205" s="1"/>
       <c r="AY205" s="1"/>
     </row>
-    <row r="206" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A206"/>
+    <row r="206" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -11623,8 +12016,7 @@
       <c r="AX206" s="1"/>
       <c r="AY206" s="1"/>
     </row>
-    <row r="207" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A207"/>
+    <row r="207" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -11673,8 +12065,7 @@
       <c r="AX207" s="1"/>
       <c r="AY207" s="1"/>
     </row>
-    <row r="208" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A208"/>
+    <row r="208" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -11723,8 +12114,7 @@
       <c r="AX208" s="1"/>
       <c r="AY208" s="1"/>
     </row>
-    <row r="209" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A209"/>
+    <row r="209" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -11773,8 +12163,7 @@
       <c r="AX209" s="1"/>
       <c r="AY209" s="1"/>
     </row>
-    <row r="210" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A210"/>
+    <row r="210" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -11823,8 +12212,7 @@
       <c r="AX210" s="1"/>
       <c r="AY210" s="1"/>
     </row>
-    <row r="211" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A211"/>
+    <row r="211" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -11873,8 +12261,7 @@
       <c r="AX211" s="1"/>
       <c r="AY211" s="1"/>
     </row>
-    <row r="212" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A212"/>
+    <row r="212" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -11923,8 +12310,7 @@
       <c r="AX212" s="1"/>
       <c r="AY212" s="1"/>
     </row>
-    <row r="213" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A213"/>
+    <row r="213" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -11973,8 +12359,7 @@
       <c r="AX213" s="1"/>
       <c r="AY213" s="1"/>
     </row>
-    <row r="214" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A214"/>
+    <row r="214" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -12023,8 +12408,7 @@
       <c r="AX214" s="1"/>
       <c r="AY214" s="1"/>
     </row>
-    <row r="215" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A215"/>
+    <row r="215" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -12073,8 +12457,7 @@
       <c r="AX215" s="1"/>
       <c r="AY215" s="1"/>
     </row>
-    <row r="216" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A216"/>
+    <row r="216" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -12123,8 +12506,7 @@
       <c r="AX216" s="1"/>
       <c r="AY216" s="1"/>
     </row>
-    <row r="217" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A217"/>
+    <row r="217" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -12173,8 +12555,7 @@
       <c r="AX217" s="1"/>
       <c r="AY217" s="1"/>
     </row>
-    <row r="218" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A218"/>
+    <row r="218" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -12223,8 +12604,7 @@
       <c r="AX218" s="1"/>
       <c r="AY218" s="1"/>
     </row>
-    <row r="219" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A219"/>
+    <row r="219" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -12273,8 +12653,7 @@
       <c r="AX219" s="1"/>
       <c r="AY219" s="1"/>
     </row>
-    <row r="220" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A220"/>
+    <row r="220" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -12323,8 +12702,7 @@
       <c r="AX220" s="1"/>
       <c r="AY220" s="1"/>
     </row>
-    <row r="221" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A221"/>
+    <row r="221" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -12373,8 +12751,7 @@
       <c r="AX221" s="1"/>
       <c r="AY221" s="1"/>
     </row>
-    <row r="222" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A222"/>
+    <row r="222" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -12423,8 +12800,7 @@
       <c r="AX222" s="1"/>
       <c r="AY222" s="1"/>
     </row>
-    <row r="223" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A223"/>
+    <row r="223" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -12473,8 +12849,7 @@
       <c r="AX223" s="1"/>
       <c r="AY223" s="1"/>
     </row>
-    <row r="224" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A224"/>
+    <row r="224" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -12523,8 +12898,7 @@
       <c r="AX224" s="1"/>
       <c r="AY224" s="1"/>
     </row>
-    <row r="225" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A225"/>
+    <row r="225" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -12573,8 +12947,7 @@
       <c r="AX225" s="1"/>
       <c r="AY225" s="1"/>
     </row>
-    <row r="226" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A226"/>
+    <row r="226" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -12623,8 +12996,7 @@
       <c r="AX226" s="1"/>
       <c r="AY226" s="1"/>
     </row>
-    <row r="227" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A227"/>
+    <row r="227" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -12673,8 +13045,7 @@
       <c r="AX227" s="1"/>
       <c r="AY227" s="1"/>
     </row>
-    <row r="228" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A228"/>
+    <row r="228" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -12723,8 +13094,7 @@
       <c r="AX228" s="1"/>
       <c r="AY228" s="1"/>
     </row>
-    <row r="229" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A229"/>
+    <row r="229" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -12773,8 +13143,7 @@
       <c r="AX229" s="1"/>
       <c r="AY229" s="1"/>
     </row>
-    <row r="230" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A230"/>
+    <row r="230" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -12823,8 +13192,7 @@
       <c r="AX230" s="1"/>
       <c r="AY230" s="1"/>
     </row>
-    <row r="231" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A231"/>
+    <row r="231" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -12873,8 +13241,7 @@
       <c r="AX231" s="1"/>
       <c r="AY231" s="1"/>
     </row>
-    <row r="232" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A232"/>
+    <row r="232" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -12923,8 +13290,7 @@
       <c r="AX232" s="1"/>
       <c r="AY232" s="1"/>
     </row>
-    <row r="233" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A233"/>
+    <row r="233" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -12973,8 +13339,7 @@
       <c r="AX233" s="1"/>
       <c r="AY233" s="1"/>
     </row>
-    <row r="234" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A234"/>
+    <row r="234" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -13023,8 +13388,7 @@
       <c r="AX234" s="1"/>
       <c r="AY234" s="1"/>
     </row>
-    <row r="235" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A235"/>
+    <row r="235" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -13073,8 +13437,7 @@
       <c r="AX235" s="1"/>
       <c r="AY235" s="1"/>
     </row>
-    <row r="236" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A236"/>
+    <row r="236" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -13123,8 +13486,7 @@
       <c r="AX236" s="1"/>
       <c r="AY236" s="1"/>
     </row>
-    <row r="237" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A237"/>
+    <row r="237" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -13173,8 +13535,7 @@
       <c r="AX237" s="1"/>
       <c r="AY237" s="1"/>
     </row>
-    <row r="238" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A238"/>
+    <row r="238" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -13223,8 +13584,7 @@
       <c r="AX238" s="1"/>
       <c r="AY238" s="1"/>
     </row>
-    <row r="239" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A239"/>
+    <row r="239" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -13273,8 +13633,7 @@
       <c r="AX239" s="1"/>
       <c r="AY239" s="1"/>
     </row>
-    <row r="240" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A240"/>
+    <row r="240" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -13323,8 +13682,7 @@
       <c r="AX240" s="1"/>
       <c r="AY240" s="1"/>
     </row>
-    <row r="241" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A241"/>
+    <row r="241" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -13373,8 +13731,7 @@
       <c r="AX241" s="1"/>
       <c r="AY241" s="1"/>
     </row>
-    <row r="242" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A242"/>
+    <row r="242" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -13423,8 +13780,7 @@
       <c r="AX242" s="1"/>
       <c r="AY242" s="1"/>
     </row>
-    <row r="243" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A243"/>
+    <row r="243" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -13473,8 +13829,7 @@
       <c r="AX243" s="1"/>
       <c r="AY243" s="1"/>
     </row>
-    <row r="244" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A244"/>
+    <row r="244" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -13523,8 +13878,7 @@
       <c r="AX244" s="1"/>
       <c r="AY244" s="1"/>
     </row>
-    <row r="245" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A245"/>
+    <row r="245" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -13573,8 +13927,7 @@
       <c r="AX245" s="1"/>
       <c r="AY245" s="1"/>
     </row>
-    <row r="246" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A246"/>
+    <row r="246" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -13623,8 +13976,7 @@
       <c r="AX246" s="1"/>
       <c r="AY246" s="1"/>
     </row>
-    <row r="247" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A247"/>
+    <row r="247" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -13673,8 +14025,7 @@
       <c r="AX247" s="1"/>
       <c r="AY247" s="1"/>
     </row>
-    <row r="248" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A248"/>
+    <row r="248" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -13723,8 +14074,7 @@
       <c r="AX248" s="1"/>
       <c r="AY248" s="1"/>
     </row>
-    <row r="249" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A249"/>
+    <row r="249" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -13773,8 +14123,7 @@
       <c r="AX249" s="1"/>
       <c r="AY249" s="1"/>
     </row>
-    <row r="250" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A250"/>
+    <row r="250" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -13823,8 +14172,7 @@
       <c r="AX250" s="1"/>
       <c r="AY250" s="1"/>
     </row>
-    <row r="251" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A251"/>
+    <row r="251" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -13873,8 +14221,7 @@
       <c r="AX251" s="1"/>
       <c r="AY251" s="1"/>
     </row>
-    <row r="252" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A252"/>
+    <row r="252" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -13923,8 +14270,7 @@
       <c r="AX252" s="1"/>
       <c r="AY252" s="1"/>
     </row>
-    <row r="253" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A253"/>
+    <row r="253" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -13973,8 +14319,7 @@
       <c r="AX253" s="1"/>
       <c r="AY253" s="1"/>
     </row>
-    <row r="254" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A254"/>
+    <row r="254" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -14023,8 +14368,7 @@
       <c r="AX254" s="1"/>
       <c r="AY254" s="1"/>
     </row>
-    <row r="255" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A255"/>
+    <row r="255" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -14073,8 +14417,7 @@
       <c r="AX255" s="1"/>
       <c r="AY255" s="1"/>
     </row>
-    <row r="256" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A256"/>
+    <row r="256" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -14123,8 +14466,7 @@
       <c r="AX256" s="1"/>
       <c r="AY256" s="1"/>
     </row>
-    <row r="257" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A257"/>
+    <row r="257" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -14173,8 +14515,7 @@
       <c r="AX257" s="1"/>
       <c r="AY257" s="1"/>
     </row>
-    <row r="258" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A258"/>
+    <row r="258" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -14223,8 +14564,7 @@
       <c r="AX258" s="1"/>
       <c r="AY258" s="1"/>
     </row>
-    <row r="259" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A259"/>
+    <row r="259" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -14273,8 +14613,7 @@
       <c r="AX259" s="1"/>
       <c r="AY259" s="1"/>
     </row>
-    <row r="260" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A260"/>
+    <row r="260" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -14323,8 +14662,7 @@
       <c r="AX260" s="1"/>
       <c r="AY260" s="1"/>
     </row>
-    <row r="261" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A261"/>
+    <row r="261" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -14373,8 +14711,7 @@
       <c r="AX261" s="1"/>
       <c r="AY261" s="1"/>
     </row>
-    <row r="262" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A262"/>
+    <row r="262" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -14423,8 +14760,7 @@
       <c r="AX262" s="1"/>
       <c r="AY262" s="1"/>
     </row>
-    <row r="263" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A263"/>
+    <row r="263" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -14473,8 +14809,7 @@
       <c r="AX263" s="1"/>
       <c r="AY263" s="1"/>
     </row>
-    <row r="264" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A264"/>
+    <row r="264" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -14523,8 +14858,7 @@
       <c r="AX264" s="1"/>
       <c r="AY264" s="1"/>
     </row>
-    <row r="265" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A265"/>
+    <row r="265" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -14573,8 +14907,7 @@
       <c r="AX265" s="1"/>
       <c r="AY265" s="1"/>
     </row>
-    <row r="266" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A266"/>
+    <row r="266" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -14623,8 +14956,7 @@
       <c r="AX266" s="1"/>
       <c r="AY266" s="1"/>
     </row>
-    <row r="267" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A267"/>
+    <row r="267" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -14673,8 +15005,7 @@
       <c r="AX267" s="1"/>
       <c r="AY267" s="1"/>
     </row>
-    <row r="268" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A268"/>
+    <row r="268" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -14723,8 +15054,7 @@
       <c r="AX268" s="1"/>
       <c r="AY268" s="1"/>
     </row>
-    <row r="269" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A269"/>
+    <row r="269" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -14773,8 +15103,7 @@
       <c r="AX269" s="1"/>
       <c r="AY269" s="1"/>
     </row>
-    <row r="270" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A270"/>
+    <row r="270" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -14823,8 +15152,7 @@
       <c r="AX270" s="1"/>
       <c r="AY270" s="1"/>
     </row>
-    <row r="271" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A271"/>
+    <row r="271" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -14873,8 +15201,7 @@
       <c r="AX271" s="1"/>
       <c r="AY271" s="1"/>
     </row>
-    <row r="272" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A272"/>
+    <row r="272" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -14923,8 +15250,7 @@
       <c r="AX272" s="1"/>
       <c r="AY272" s="1"/>
     </row>
-    <row r="273" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A273"/>
+    <row r="273" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -14973,8 +15299,7 @@
       <c r="AX273" s="1"/>
       <c r="AY273" s="1"/>
     </row>
-    <row r="274" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A274"/>
+    <row r="274" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -15023,8 +15348,7 @@
       <c r="AX274" s="1"/>
       <c r="AY274" s="1"/>
     </row>
-    <row r="275" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A275"/>
+    <row r="275" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -15073,8 +15397,7 @@
       <c r="AX275" s="1"/>
       <c r="AY275" s="1"/>
     </row>
-    <row r="276" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A276"/>
+    <row r="276" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -15123,8 +15446,7 @@
       <c r="AX276" s="1"/>
       <c r="AY276" s="1"/>
     </row>
-    <row r="277" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A277"/>
+    <row r="277" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -15173,8 +15495,7 @@
       <c r="AX277" s="1"/>
       <c r="AY277" s="1"/>
     </row>
-    <row r="278" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A278"/>
+    <row r="278" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -15223,8 +15544,7 @@
       <c r="AX278" s="1"/>
       <c r="AY278" s="1"/>
     </row>
-    <row r="279" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A279"/>
+    <row r="279" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -15273,8 +15593,7 @@
       <c r="AX279" s="1"/>
       <c r="AY279" s="1"/>
     </row>
-    <row r="280" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A280"/>
+    <row r="280" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -15323,8 +15642,7 @@
       <c r="AX280" s="1"/>
       <c r="AY280" s="1"/>
     </row>
-    <row r="281" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A281"/>
+    <row r="281" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -15373,8 +15691,7 @@
       <c r="AX281" s="1"/>
       <c r="AY281" s="1"/>
     </row>
-    <row r="282" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A282"/>
+    <row r="282" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -15423,8 +15740,7 @@
       <c r="AX282" s="1"/>
       <c r="AY282" s="1"/>
     </row>
-    <row r="283" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A283"/>
+    <row r="283" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -15473,8 +15789,7 @@
       <c r="AX283" s="1"/>
       <c r="AY283" s="1"/>
     </row>
-    <row r="284" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A284"/>
+    <row r="284" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -15523,8 +15838,7 @@
       <c r="AX284" s="1"/>
       <c r="AY284" s="1"/>
     </row>
-    <row r="285" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A285"/>
+    <row r="285" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -15573,8 +15887,7 @@
       <c r="AX285" s="1"/>
       <c r="AY285" s="1"/>
     </row>
-    <row r="286" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A286"/>
+    <row r="286" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -15623,8 +15936,7 @@
       <c r="AX286" s="1"/>
       <c r="AY286" s="1"/>
     </row>
-    <row r="287" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A287"/>
+    <row r="287" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -15673,8 +15985,7 @@
       <c r="AX287" s="1"/>
       <c r="AY287" s="1"/>
     </row>
-    <row r="288" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A288"/>
+    <row r="288" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -15723,8 +16034,7 @@
       <c r="AX288" s="1"/>
       <c r="AY288" s="1"/>
     </row>
-    <row r="289" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A289"/>
+    <row r="289" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -15773,8 +16083,7 @@
       <c r="AX289" s="1"/>
       <c r="AY289" s="1"/>
     </row>
-    <row r="290" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A290"/>
+    <row r="290" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -15823,8 +16132,7 @@
       <c r="AX290" s="1"/>
       <c r="AY290" s="1"/>
     </row>
-    <row r="291" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A291"/>
+    <row r="291" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -15873,8 +16181,7 @@
       <c r="AX291" s="1"/>
       <c r="AY291" s="1"/>
     </row>
-    <row r="292" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A292"/>
+    <row r="292" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -15923,8 +16230,7 @@
       <c r="AX292" s="1"/>
       <c r="AY292" s="1"/>
     </row>
-    <row r="293" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A293"/>
+    <row r="293" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -15973,8 +16279,7 @@
       <c r="AX293" s="1"/>
       <c r="AY293" s="1"/>
     </row>
-    <row r="294" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A294"/>
+    <row r="294" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -16023,8 +16328,7 @@
       <c r="AX294" s="1"/>
       <c r="AY294" s="1"/>
     </row>
-    <row r="295" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A295"/>
+    <row r="295" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -16073,8 +16377,7 @@
       <c r="AX295" s="1"/>
       <c r="AY295" s="1"/>
     </row>
-    <row r="296" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A296"/>
+    <row r="296" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -16123,8 +16426,7 @@
       <c r="AX296" s="1"/>
       <c r="AY296" s="1"/>
     </row>
-    <row r="297" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A297"/>
+    <row r="297" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -16173,8 +16475,7 @@
       <c r="AX297" s="1"/>
       <c r="AY297" s="1"/>
     </row>
-    <row r="298" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A298"/>
+    <row r="298" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -16223,8 +16524,7 @@
       <c r="AX298" s="1"/>
       <c r="AY298" s="1"/>
     </row>
-    <row r="299" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A299"/>
+    <row r="299" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -16273,8 +16573,7 @@
       <c r="AX299" s="1"/>
       <c r="AY299" s="1"/>
     </row>
-    <row r="300" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A300"/>
+    <row r="300" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -16323,8 +16622,7 @@
       <c r="AX300" s="1"/>
       <c r="AY300" s="1"/>
     </row>
-    <row r="301" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A301"/>
+    <row r="301" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -16373,8 +16671,7 @@
       <c r="AX301" s="1"/>
       <c r="AY301" s="1"/>
     </row>
-    <row r="302" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A302"/>
+    <row r="302" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -16423,8 +16720,7 @@
       <c r="AX302" s="1"/>
       <c r="AY302" s="1"/>
     </row>
-    <row r="303" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A303"/>
+    <row r="303" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -16473,8 +16769,7 @@
       <c r="AX303" s="1"/>
       <c r="AY303" s="1"/>
     </row>
-    <row r="304" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A304"/>
+    <row r="304" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -16523,8 +16818,7 @@
       <c r="AX304" s="1"/>
       <c r="AY304" s="1"/>
     </row>
-    <row r="305" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A305"/>
+    <row r="305" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -16573,8 +16867,7 @@
       <c r="AX305" s="1"/>
       <c r="AY305" s="1"/>
     </row>
-    <row r="306" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A306"/>
+    <row r="306" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -16623,8 +16916,7 @@
       <c r="AX306" s="1"/>
       <c r="AY306" s="1"/>
     </row>
-    <row r="307" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A307"/>
+    <row r="307" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -16673,8 +16965,7 @@
       <c r="AX307" s="1"/>
       <c r="AY307" s="1"/>
     </row>
-    <row r="308" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A308"/>
+    <row r="308" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -16723,8 +17014,7 @@
       <c r="AX308" s="1"/>
       <c r="AY308" s="1"/>
     </row>
-    <row r="309" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A309"/>
+    <row r="309" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -16773,8 +17063,7 @@
       <c r="AX309" s="1"/>
       <c r="AY309" s="1"/>
     </row>
-    <row r="310" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A310"/>
+    <row r="310" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -16823,8 +17112,7 @@
       <c r="AX310" s="1"/>
       <c r="AY310" s="1"/>
     </row>
-    <row r="311" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A311"/>
+    <row r="311" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -16873,8 +17161,7 @@
       <c r="AX311" s="1"/>
       <c r="AY311" s="1"/>
     </row>
-    <row r="312" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A312"/>
+    <row r="312" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -16923,8 +17210,7 @@
       <c r="AX312" s="1"/>
       <c r="AY312" s="1"/>
     </row>
-    <row r="313" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A313"/>
+    <row r="313" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -16973,8 +17259,7 @@
       <c r="AX313" s="1"/>
       <c r="AY313" s="1"/>
     </row>
-    <row r="314" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A314"/>
+    <row r="314" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -17023,8 +17308,7 @@
       <c r="AX314" s="1"/>
       <c r="AY314" s="1"/>
     </row>
-    <row r="315" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A315"/>
+    <row r="315" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -17073,8 +17357,7 @@
       <c r="AX315" s="1"/>
       <c r="AY315" s="1"/>
     </row>
-    <row r="316" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A316"/>
+    <row r="316" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -17123,8 +17406,7 @@
       <c r="AX316" s="1"/>
       <c r="AY316" s="1"/>
     </row>
-    <row r="317" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A317"/>
+    <row r="317" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -17173,8 +17455,7 @@
       <c r="AX317" s="1"/>
       <c r="AY317" s="1"/>
     </row>
-    <row r="318" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A318"/>
+    <row r="318" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -17223,8 +17504,7 @@
       <c r="AX318" s="1"/>
       <c r="AY318" s="1"/>
     </row>
-    <row r="319" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A319"/>
+    <row r="319" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -17273,8 +17553,7 @@
       <c r="AX319" s="1"/>
       <c r="AY319" s="1"/>
     </row>
-    <row r="320" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A320"/>
+    <row r="320" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -17323,8 +17602,7 @@
       <c r="AX320" s="1"/>
       <c r="AY320" s="1"/>
     </row>
-    <row r="321" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A321"/>
+    <row r="321" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -17373,8 +17651,7 @@
       <c r="AX321" s="1"/>
       <c r="AY321" s="1"/>
     </row>
-    <row r="322" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A322"/>
+    <row r="322" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -17423,8 +17700,7 @@
       <c r="AX322" s="1"/>
       <c r="AY322" s="1"/>
     </row>
-    <row r="323" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A323"/>
+    <row r="323" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -17473,8 +17749,7 @@
       <c r="AX323" s="1"/>
       <c r="AY323" s="1"/>
     </row>
-    <row r="324" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A324"/>
+    <row r="324" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -17523,8 +17798,7 @@
       <c r="AX324" s="1"/>
       <c r="AY324" s="1"/>
     </row>
-    <row r="325" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A325"/>
+    <row r="325" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -17573,8 +17847,7 @@
       <c r="AX325" s="1"/>
       <c r="AY325" s="1"/>
     </row>
-    <row r="326" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A326"/>
+    <row r="326" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -17623,8 +17896,7 @@
       <c r="AX326" s="1"/>
       <c r="AY326" s="1"/>
     </row>
-    <row r="327" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A327"/>
+    <row r="327" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -17673,8 +17945,7 @@
       <c r="AX327" s="1"/>
       <c r="AY327" s="1"/>
     </row>
-    <row r="328" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A328"/>
+    <row r="328" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -17723,8 +17994,7 @@
       <c r="AX328" s="1"/>
       <c r="AY328" s="1"/>
     </row>
-    <row r="329" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A329"/>
+    <row r="329" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -17773,8 +18043,7 @@
       <c r="AX329" s="1"/>
       <c r="AY329" s="1"/>
     </row>
-    <row r="330" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A330"/>
+    <row r="330" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -17823,8 +18092,7 @@
       <c r="AX330" s="1"/>
       <c r="AY330" s="1"/>
     </row>
-    <row r="331" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A331"/>
+    <row r="331" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -17873,8 +18141,7 @@
       <c r="AX331" s="1"/>
       <c r="AY331" s="1"/>
     </row>
-    <row r="332" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A332"/>
+    <row r="332" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -17923,8 +18190,7 @@
       <c r="AX332" s="1"/>
       <c r="AY332" s="1"/>
     </row>
-    <row r="333" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A333"/>
+    <row r="333" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -17973,8 +18239,7 @@
       <c r="AX333" s="1"/>
       <c r="AY333" s="1"/>
     </row>
-    <row r="334" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A334"/>
+    <row r="334" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -18023,8 +18288,7 @@
       <c r="AX334" s="1"/>
       <c r="AY334" s="1"/>
     </row>
-    <row r="335" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A335"/>
+    <row r="335" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -18073,8 +18337,7 @@
       <c r="AX335" s="1"/>
       <c r="AY335" s="1"/>
     </row>
-    <row r="336" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A336"/>
+    <row r="336" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -18123,8 +18386,7 @@
       <c r="AX336" s="1"/>
       <c r="AY336" s="1"/>
     </row>
-    <row r="337" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A337"/>
+    <row r="337" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -18173,8 +18435,7 @@
       <c r="AX337" s="1"/>
       <c r="AY337" s="1"/>
     </row>
-    <row r="338" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A338"/>
+    <row r="338" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -18223,8 +18484,7 @@
       <c r="AX338" s="1"/>
       <c r="AY338" s="1"/>
     </row>
-    <row r="339" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A339"/>
+    <row r="339" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -18273,8 +18533,7 @@
       <c r="AX339" s="1"/>
       <c r="AY339" s="1"/>
     </row>
-    <row r="340" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A340"/>
+    <row r="340" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -18323,8 +18582,7 @@
       <c r="AX340" s="1"/>
       <c r="AY340" s="1"/>
     </row>
-    <row r="341" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A341"/>
+    <row r="341" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -18373,8 +18631,7 @@
       <c r="AX341" s="1"/>
       <c r="AY341" s="1"/>
     </row>
-    <row r="342" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A342"/>
+    <row r="342" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -18423,8 +18680,7 @@
       <c r="AX342" s="1"/>
       <c r="AY342" s="1"/>
     </row>
-    <row r="343" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A343"/>
+    <row r="343" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -18473,8 +18729,7 @@
       <c r="AX343" s="1"/>
       <c r="AY343" s="1"/>
     </row>
-    <row r="344" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A344"/>
+    <row r="344" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -18523,8 +18778,7 @@
       <c r="AX344" s="1"/>
       <c r="AY344" s="1"/>
     </row>
-    <row r="345" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A345"/>
+    <row r="345" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -18573,8 +18827,7 @@
       <c r="AX345" s="1"/>
       <c r="AY345" s="1"/>
     </row>
-    <row r="346" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A346"/>
+    <row r="346" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -18623,8 +18876,7 @@
       <c r="AX346" s="1"/>
       <c r="AY346" s="1"/>
     </row>
-    <row r="347" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A347"/>
+    <row r="347" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -18673,8 +18925,7 @@
       <c r="AX347" s="1"/>
       <c r="AY347" s="1"/>
     </row>
-    <row r="348" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A348"/>
+    <row r="348" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -18723,8 +18974,7 @@
       <c r="AX348" s="1"/>
       <c r="AY348" s="1"/>
     </row>
-    <row r="349" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A349"/>
+    <row r="349" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -18773,8 +19023,7 @@
       <c r="AX349" s="1"/>
       <c r="AY349" s="1"/>
     </row>
-    <row r="350" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A350"/>
+    <row r="350" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -18823,8 +19072,7 @@
       <c r="AX350" s="1"/>
       <c r="AY350" s="1"/>
     </row>
-    <row r="351" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A351"/>
+    <row r="351" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -18873,8 +19121,7 @@
       <c r="AX351" s="1"/>
       <c r="AY351" s="1"/>
     </row>
-    <row r="352" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A352"/>
+    <row r="352" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -18923,8 +19170,7 @@
       <c r="AX352" s="1"/>
       <c r="AY352" s="1"/>
     </row>
-    <row r="353" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A353"/>
+    <row r="353" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -18973,8 +19219,7 @@
       <c r="AX353" s="1"/>
       <c r="AY353" s="1"/>
     </row>
-    <row r="354" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A354"/>
+    <row r="354" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -19023,8 +19268,7 @@
       <c r="AX354" s="1"/>
       <c r="AY354" s="1"/>
     </row>
-    <row r="355" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A355"/>
+    <row r="355" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -19073,8 +19317,7 @@
       <c r="AX355" s="1"/>
       <c r="AY355" s="1"/>
     </row>
-    <row r="356" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A356"/>
+    <row r="356" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -19123,8 +19366,7 @@
       <c r="AX356" s="1"/>
       <c r="AY356" s="1"/>
     </row>
-    <row r="357" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A357"/>
+    <row r="357" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -19173,8 +19415,7 @@
       <c r="AX357" s="1"/>
       <c r="AY357" s="1"/>
     </row>
-    <row r="358" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A358"/>
+    <row r="358" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -19223,8 +19464,7 @@
       <c r="AX358" s="1"/>
       <c r="AY358" s="1"/>
     </row>
-    <row r="359" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A359"/>
+    <row r="359" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -19273,8 +19513,7 @@
       <c r="AX359" s="1"/>
       <c r="AY359" s="1"/>
     </row>
-    <row r="360" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A360"/>
+    <row r="360" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -19323,8 +19562,7 @@
       <c r="AX360" s="1"/>
       <c r="AY360" s="1"/>
     </row>
-    <row r="361" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A361"/>
+    <row r="361" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -19373,8 +19611,7 @@
       <c r="AX361" s="1"/>
       <c r="AY361" s="1"/>
     </row>
-    <row r="362" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A362"/>
+    <row r="362" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -19423,8 +19660,7 @@
       <c r="AX362" s="1"/>
       <c r="AY362" s="1"/>
     </row>
-    <row r="363" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A363"/>
+    <row r="363" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -19473,8 +19709,7 @@
       <c r="AX363" s="1"/>
       <c r="AY363" s="1"/>
     </row>
-    <row r="364" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A364"/>
+    <row r="364" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -19523,8 +19758,7 @@
       <c r="AX364" s="1"/>
       <c r="AY364" s="1"/>
     </row>
-    <row r="365" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A365"/>
+    <row r="365" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -19573,8 +19807,7 @@
       <c r="AX365" s="1"/>
       <c r="AY365" s="1"/>
     </row>
-    <row r="366" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A366"/>
+    <row r="366" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -19623,8 +19856,7 @@
       <c r="AX366" s="1"/>
       <c r="AY366" s="1"/>
     </row>
-    <row r="367" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A367"/>
+    <row r="367" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -19673,8 +19905,7 @@
       <c r="AX367" s="1"/>
       <c r="AY367" s="1"/>
     </row>
-    <row r="368" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A368"/>
+    <row r="368" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -19723,8 +19954,7 @@
       <c r="AX368" s="1"/>
       <c r="AY368" s="1"/>
     </row>
-    <row r="369" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A369"/>
+    <row r="369" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -19773,8 +20003,7 @@
       <c r="AX369" s="1"/>
       <c r="AY369" s="1"/>
     </row>
-    <row r="370" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A370"/>
+    <row r="370" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -19823,8 +20052,7 @@
       <c r="AX370" s="1"/>
       <c r="AY370" s="1"/>
     </row>
-    <row r="371" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A371"/>
+    <row r="371" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -19873,8 +20101,7 @@
       <c r="AX371" s="1"/>
       <c r="AY371" s="1"/>
     </row>
-    <row r="372" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A372"/>
+    <row r="372" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -19923,8 +20150,7 @@
       <c r="AX372" s="1"/>
       <c r="AY372" s="1"/>
     </row>
-    <row r="373" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A373"/>
+    <row r="373" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -19973,8 +20199,7 @@
       <c r="AX373" s="1"/>
       <c r="AY373" s="1"/>
     </row>
-    <row r="374" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A374"/>
+    <row r="374" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -20023,8 +20248,7 @@
       <c r="AX374" s="1"/>
       <c r="AY374" s="1"/>
     </row>
-    <row r="375" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A375"/>
+    <row r="375" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -20073,8 +20297,7 @@
       <c r="AX375" s="1"/>
       <c r="AY375" s="1"/>
     </row>
-    <row r="376" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A376"/>
+    <row r="376" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -20123,8 +20346,7 @@
       <c r="AX376" s="1"/>
       <c r="AY376" s="1"/>
     </row>
-    <row r="377" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A377"/>
+    <row r="377" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -20173,8 +20395,7 @@
       <c r="AX377" s="1"/>
       <c r="AY377" s="1"/>
     </row>
-    <row r="378" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A378"/>
+    <row r="378" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -20223,8 +20444,7 @@
       <c r="AX378" s="1"/>
       <c r="AY378" s="1"/>
     </row>
-    <row r="379" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A379"/>
+    <row r="379" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -20273,8 +20493,7 @@
       <c r="AX379" s="1"/>
       <c r="AY379" s="1"/>
     </row>
-    <row r="380" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A380"/>
+    <row r="380" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -20323,8 +20542,7 @@
       <c r="AX380" s="1"/>
       <c r="AY380" s="1"/>
     </row>
-    <row r="381" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A381"/>
+    <row r="381" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -20373,8 +20591,7 @@
       <c r="AX381" s="1"/>
       <c r="AY381" s="1"/>
     </row>
-    <row r="382" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A382"/>
+    <row r="382" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -20423,8 +20640,7 @@
       <c r="AX382" s="1"/>
       <c r="AY382" s="1"/>
     </row>
-    <row r="383" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A383"/>
+    <row r="383" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -20473,8 +20689,7 @@
       <c r="AX383" s="1"/>
       <c r="AY383" s="1"/>
     </row>
-    <row r="384" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A384"/>
+    <row r="384" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -20523,8 +20738,7 @@
       <c r="AX384" s="1"/>
       <c r="AY384" s="1"/>
     </row>
-    <row r="385" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A385"/>
+    <row r="385" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -20573,8 +20787,7 @@
       <c r="AX385" s="1"/>
       <c r="AY385" s="1"/>
     </row>
-    <row r="386" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A386"/>
+    <row r="386" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -20623,8 +20836,7 @@
       <c r="AX386" s="1"/>
       <c r="AY386" s="1"/>
     </row>
-    <row r="387" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A387"/>
+    <row r="387" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -20673,8 +20885,7 @@
       <c r="AX387" s="1"/>
       <c r="AY387" s="1"/>
     </row>
-    <row r="388" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A388"/>
+    <row r="388" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -20723,8 +20934,7 @@
       <c r="AX388" s="1"/>
       <c r="AY388" s="1"/>
     </row>
-    <row r="389" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A389"/>
+    <row r="389" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -20773,8 +20983,7 @@
       <c r="AX389" s="1"/>
       <c r="AY389" s="1"/>
     </row>
-    <row r="390" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A390"/>
+    <row r="390" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -20823,8 +21032,7 @@
       <c r="AX390" s="1"/>
       <c r="AY390" s="1"/>
     </row>
-    <row r="391" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A391"/>
+    <row r="391" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -20873,8 +21081,7 @@
       <c r="AX391" s="1"/>
       <c r="AY391" s="1"/>
     </row>
-    <row r="392" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A392"/>
+    <row r="392" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -20923,8 +21130,7 @@
       <c r="AX392" s="1"/>
       <c r="AY392" s="1"/>
     </row>
-    <row r="393" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A393"/>
+    <row r="393" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -20973,8 +21179,7 @@
       <c r="AX393" s="1"/>
       <c r="AY393" s="1"/>
     </row>
-    <row r="394" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A394"/>
+    <row r="394" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -21023,8 +21228,7 @@
       <c r="AX394" s="1"/>
       <c r="AY394" s="1"/>
     </row>
-    <row r="395" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A395"/>
+    <row r="395" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -21073,8 +21277,7 @@
       <c r="AX395" s="1"/>
       <c r="AY395" s="1"/>
     </row>
-    <row r="396" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A396"/>
+    <row r="396" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -21123,8 +21326,7 @@
       <c r="AX396" s="1"/>
       <c r="AY396" s="1"/>
     </row>
-    <row r="397" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A397"/>
+    <row r="397" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -21173,8 +21375,7 @@
       <c r="AX397" s="1"/>
       <c r="AY397" s="1"/>
     </row>
-    <row r="398" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A398"/>
+    <row r="398" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -21223,8 +21424,7 @@
       <c r="AX398" s="1"/>
       <c r="AY398" s="1"/>
     </row>
-    <row r="399" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A399"/>
+    <row r="399" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -21273,8 +21473,7 @@
       <c r="AX399" s="1"/>
       <c r="AY399" s="1"/>
     </row>
-    <row r="400" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A400"/>
+    <row r="400" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -21323,8 +21522,7 @@
       <c r="AX400" s="1"/>
       <c r="AY400" s="1"/>
     </row>
-    <row r="401" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A401"/>
+    <row r="401" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -21373,8 +21571,7 @@
       <c r="AX401" s="1"/>
       <c r="AY401" s="1"/>
     </row>
-    <row r="402" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A402"/>
+    <row r="402" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -21423,8 +21620,7 @@
       <c r="AX402" s="1"/>
       <c r="AY402" s="1"/>
     </row>
-    <row r="403" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A403"/>
+    <row r="403" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -21473,8 +21669,7 @@
       <c r="AX403" s="1"/>
       <c r="AY403" s="1"/>
     </row>
-    <row r="404" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A404"/>
+    <row r="404" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -21523,8 +21718,7 @@
       <c r="AX404" s="1"/>
       <c r="AY404" s="1"/>
     </row>
-    <row r="405" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A405"/>
+    <row r="405" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -21573,8 +21767,7 @@
       <c r="AX405" s="1"/>
       <c r="AY405" s="1"/>
     </row>
-    <row r="406" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A406"/>
+    <row r="406" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -21623,8 +21816,7 @@
       <c r="AX406" s="1"/>
       <c r="AY406" s="1"/>
     </row>
-    <row r="407" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A407"/>
+    <row r="407" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -21673,8 +21865,7 @@
       <c r="AX407" s="1"/>
       <c r="AY407" s="1"/>
     </row>
-    <row r="408" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A408"/>
+    <row r="408" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -21723,8 +21914,7 @@
       <c r="AX408" s="1"/>
       <c r="AY408" s="1"/>
     </row>
-    <row r="409" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A409"/>
+    <row r="409" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -21773,8 +21963,7 @@
       <c r="AX409" s="1"/>
       <c r="AY409" s="1"/>
     </row>
-    <row r="410" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A410"/>
+    <row r="410" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -21823,8 +22012,7 @@
       <c r="AX410" s="1"/>
       <c r="AY410" s="1"/>
     </row>
-    <row r="411" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A411"/>
+    <row r="411" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -21873,8 +22061,7 @@
       <c r="AX411" s="1"/>
       <c r="AY411" s="1"/>
     </row>
-    <row r="412" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A412"/>
+    <row r="412" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -21923,8 +22110,7 @@
       <c r="AX412" s="1"/>
       <c r="AY412" s="1"/>
     </row>
-    <row r="413" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A413"/>
+    <row r="413" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -21973,8 +22159,7 @@
       <c r="AX413" s="1"/>
       <c r="AY413" s="1"/>
     </row>
-    <row r="414" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A414"/>
+    <row r="414" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -22023,8 +22208,7 @@
       <c r="AX414" s="1"/>
       <c r="AY414" s="1"/>
     </row>
-    <row r="415" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A415"/>
+    <row r="415" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -22073,8 +22257,7 @@
       <c r="AX415" s="1"/>
       <c r="AY415" s="1"/>
     </row>
-    <row r="416" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A416"/>
+    <row r="416" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -22123,8 +22306,7 @@
       <c r="AX416" s="1"/>
       <c r="AY416" s="1"/>
     </row>
-    <row r="417" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A417"/>
+    <row r="417" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -22179,34 +22361,339 @@
     <sortCondition descending="1" ref="I7:I46"/>
   </sortState>
   <mergeCells count="5">
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="B16:C24"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B16:C24"/>
   </mergeCells>
-  <conditionalFormatting sqref="I7:I55">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="4">
+  <conditionalFormatting sqref="I7:I8 I12 I14 I17:I18 I21:I22 I26:I28 I30 I33:I34 I42 I46:I55 I24 I37:I38 I40 I44">
+    <cfRule type="containsText" dxfId="79" priority="77" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",I7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",I7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",I7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="containsText" dxfId="75" priority="73" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="64" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",I36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",I36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E52 G36 G52 I7:I55" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E52 G52 I7:I55 G36" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$B$7:$B$10</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1" display=". " xr:uid="{348DF8D9-A9CB-4FB5-9328-C75D38081DB9}"/>
+    <hyperlink ref="G17" r:id="rId2" display="did a project of nextay in software engineering course" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G24" r:id="rId5" location="e6c6ef" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G30" r:id="rId6" display="did this in a school management system in my DB course" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G34" r:id="rId7" display="did this in school management system of my DB course" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G40" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G44" r:id="rId10" location="4466cb" display="did in research paper and face recognition attendance system in AI course" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G10" r:id="rId11" display="Developed Front end for multiple semester projects" xr:uid="{1FE94EC5-42DD-44A9-A798-266554FE8ACE}"/>
+    <hyperlink ref="G13" r:id="rId12" display="Experienced in debugging and testing multiple projects efficiently, ensuring quality and performance." xr:uid="{8601B9A4-742D-4F3B-8E58-0257991D0B81}"/>
+    <hyperlink ref="G15" r:id="rId13" display="Gained hands-on experience in efficiently managing two projects." xr:uid="{8768E704-1BC3-49C0-9BB4-D514E645387A}"/>
+    <hyperlink ref="G20" r:id="rId14" display="Demonstrated strong leadership skills by successfully leading 4 projects, ensuring collaboration and efficiency." xr:uid="{B2605A87-55ED-42BD-82FA-116E29ABE89A}"/>
+    <hyperlink ref="G25" r:id="rId15" display="Moderate expertise in documentation, managing in 3 semesters." xr:uid="{F64AD381-3C95-4DA3-8C9B-C22F1EAEA4E4}"/>
+    <hyperlink ref="G29" r:id="rId16" display="Moderate experience in decision-making, with the ability to analyze situations and make effective choices." xr:uid="{CA0852F0-6520-4ED3-91D6-B30899EFE45F}"/>
+    <hyperlink ref="G32" r:id="rId17" display="Designed and maintained database systems for five projects." xr:uid="{98E4BA26-3081-45E5-A0E3-D0D8EC9456F7}"/>
+    <hyperlink ref="G41" r:id="rId18" display="Moderate expertise in API management, ensuring seamless integration and functionality." xr:uid="{A13C94CF-4159-4EC7-9731-3E65ADEA4AB2}"/>
+    <hyperlink ref="G45" r:id="rId19" display="Developed two projects integrating AI and ML engineering." xr:uid="{A224E4E3-C361-4781-9AE1-378A86A9A845}"/>
+    <hyperlink ref="G9" r:id="rId20" xr:uid="{36A3C3DD-CF92-49E3-8C71-757E7F749449}"/>
+    <hyperlink ref="G11" r:id="rId21" xr:uid="{B3182712-BC08-4BCB-823B-0A10811EF85E}"/>
+    <hyperlink ref="G16" r:id="rId22" xr:uid="{8DDF7EFB-8677-4863-B971-04FE08EA8C61}"/>
+    <hyperlink ref="G19" r:id="rId23" xr:uid="{623FA5A8-B92D-42E6-949B-04CEFB8473C7}"/>
+    <hyperlink ref="G23" r:id="rId24" location="1ba575" xr:uid="{6DD2BE03-FBDB-4336-AF62-48E93529D97C}"/>
+    <hyperlink ref="G31" r:id="rId25" xr:uid="{9B9A0FCA-932F-42AA-8DCB-CD599966173F}"/>
+    <hyperlink ref="G35" r:id="rId26" xr:uid="{1B09259A-6ABE-44EB-B9C2-719AF373DCC5}"/>
+    <hyperlink ref="G39" r:id="rId27" xr:uid="{CEBEA278-DC8C-427E-8E0B-4FD256CB4916}"/>
+    <hyperlink ref="G43" r:id="rId28" xr:uid="{57A3D356-2698-41DC-8500-C8B26ED43C2F}"/>
+    <hyperlink ref="G14" r:id="rId29" xr:uid="{1E3AAA00-5DCE-4E64-BD5D-D9092E8DC4A8}"/>
+    <hyperlink ref="G18" r:id="rId30" display="Successfully led and managed four semester projects, ensuring timely delivery." xr:uid="{1AF93031-F733-4037-95FA-A3F1491CAB52}"/>
+    <hyperlink ref="G21" r:id="rId31" display="Led teams for four academic projects, ensuring collaboration and efficiency." xr:uid="{E0EA5465-0588-48B5-9A1E-F31EC426EDC1}"/>
+    <hyperlink ref="G26" r:id="rId32" location="96db55" display="Wrote project documentation for semester projects. " xr:uid="{EA76C867-0390-4995-B8E1-E037CDB85CF7}"/>
+    <hyperlink ref="G33" r:id="rId33" display="Engineered and optimized databases for four projects." xr:uid="{CC10C752-459C-4675-B9E4-DD5B912F06A2}"/>
+    <hyperlink ref="G36" r:id="rId34" xr:uid="{9AF3F6DA-48CE-478D-A961-0CC7F9FACB66}"/>
+    <hyperlink ref="G38" r:id="rId35" display="Implemented backend functionalities for two semester-long projects." xr:uid="{0B6A7893-532D-4298-AF3D-D9653B7529B0}"/>
+    <hyperlink ref="G42" r:id="rId36" display="Integrated and managed APIs in a semester project. " xr:uid="{84B99EAF-CD05-423D-B2CB-147D82459F31}"/>
+    <hyperlink ref="G46" r:id="rId37" display="Gained hands-on experience with AI-based solutions in a project." xr:uid="{46085477-AB68-400F-9B08-AE98821AD333}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
+  <drawing r:id="rId39"/>
 </worksheet>
 </file>
 
